--- a/dataBase.xlsx
+++ b/dataBase.xlsx
@@ -1,56 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="Kira"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="28800" windowHeight="18000"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="M_Kolomenskaya1_1_10_31_E" sheetId="1" r:id="rId3"/>
-    <sheet name="M_Kolomenskaya21_3_12_142_NW" sheetId="2" r:id="rId4"/>
+    <sheet name="M_Kolomenskaya1_1_10_31_E" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="M_Kolomenskaya21_3_12_142_NW" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1734742358" val="1062" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1734742358" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1734742358" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1734742358"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Aptos Narrow"/>
-      <charset val="204"/>
-      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="12"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1734742358" ulstyle="none" kern="1">
-            <pm:latin face="Aptos Narrow" sz="240" lang="default"/>
-            <pm:cs face="Times New Roman" sz="240" lang="default"/>
-            <pm:ea face="SimSun" sz="240" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
       <name val="Arial"/>
@@ -58,20 +29,11 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1734742358" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -79,42 +41,98 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none">
+      <left>
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
+      <right>
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
+      <top>
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom>
         <color rgb="FF000000"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1734742358"/>
-        </ext>
-      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0"/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1734742358" count="1">
-        <pm:charStyle name="Обычный" fontId="0" Id="1"/>
-      </pm:charStyles>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -373,393 +391,2486 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.563910" defaultRowHeight="15.80"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.56391" defaultRowHeight="15.8"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="n">
-        <v>413.013671875</v>
+        <v>402.0938878562301</v>
       </c>
       <c r="B2" t="n">
-        <v>374.97265625</v>
+        <v>503.1386673180386</v>
       </c>
       <c r="C2" t="n">
-        <v>123.986328125</v>
+        <v>131.2845915043727</v>
       </c>
       <c r="D2" t="n">
-        <v>106.52734375</v>
+        <v>67.13482069037855</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>29.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="n">
-        <v>695.029296875</v>
+        <v>406.7960318699479</v>
       </c>
       <c r="B3" t="n">
-        <v>584.09375</v>
+        <v>368.0866810530424</v>
       </c>
       <c r="C3" t="n">
-        <v>137.001953125</v>
+        <v>111.0925447046757</v>
       </c>
       <c r="D3" t="n">
-        <v>84.66015625</v>
+        <v>104.5060890614986</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="n">
-        <v>565</v>
+        <v>712.2643702961504</v>
       </c>
       <c r="B4" t="n">
-        <v>364.0625</v>
+        <v>583.2971863076091</v>
       </c>
       <c r="C4" t="n">
-        <v>53.248046875</v>
+        <v>129.377631187439</v>
       </c>
       <c r="D4" t="n">
-        <v>104.9375</v>
+        <v>79.74414410814643</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1823818516803898</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="n">
-        <v>390</v>
+        <v>503.3422945358325</v>
       </c>
       <c r="B5" t="n">
-        <v>55.46875</v>
+        <v>15.13445986574516</v>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>67.14996699197218</v>
       </c>
       <c r="D5" t="n">
-        <v>39.15625</v>
+        <v>62.62602290976793</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>32.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="n">
-        <v>1156.46875</v>
+        <v>720.204949896317</v>
       </c>
       <c r="B6" t="n">
-        <v>535.90625</v>
+        <v>355.3586317328736</v>
       </c>
       <c r="C6" t="n">
-        <v>73.125</v>
+        <v>53.02322956128046</v>
       </c>
       <c r="D6" t="n">
-        <v>72.078125</v>
+        <v>112.5014558858238</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="n">
-        <v>723</v>
+        <v>407.3019384106155</v>
       </c>
       <c r="B7" t="n">
-        <v>350.921875</v>
+        <v>570.2508016270585</v>
       </c>
       <c r="C7" t="n">
-        <v>59.919921875</v>
+        <v>142.2380564832129</v>
       </c>
       <c r="D7" t="n">
-        <v>123.078125</v>
+        <v>76.25271685770713</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>32.5</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="n">
-        <v>383</v>
+        <v>649.1503607681952</v>
       </c>
       <c r="B8" t="n">
-        <v>482.5</v>
+        <v>352.3612338043749</v>
       </c>
       <c r="C8" t="n">
-        <v>148</v>
+        <v>53.37879841215909</v>
       </c>
       <c r="D8" t="n">
-        <v>79.03125</v>
+        <v>119.9846409023739</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="n">
-        <v>634.060546875</v>
+        <v>571.7984482091852</v>
       </c>
       <c r="B9" t="n">
-        <v>358.00390625</v>
+        <v>360.4176237541251</v>
       </c>
       <c r="C9" t="n">
-        <v>55.908203125</v>
+        <v>56.84915428748354</v>
       </c>
       <c r="D9" t="n">
-        <v>111.494140625</v>
+        <v>111.5943341325037</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>31.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="n">
-        <v>430</v>
+        <v>567.1728515625</v>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>24.716796875</v>
       </c>
       <c r="C10" t="n">
-        <v>46.21875</v>
+        <v>51.2685546875</v>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>48.77734375</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="n">
-        <v>612</v>
+        <v>409.8901716689579</v>
       </c>
       <c r="B11" t="n">
-        <v>24.96875</v>
+        <v>19.11059977905825</v>
       </c>
       <c r="C11" t="n">
-        <v>62</v>
+        <v>69.12087293807417</v>
       </c>
       <c r="D11" t="n">
-        <v>44</v>
+        <v>68.9425098693464</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>32.5</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="n">
-        <v>382.93359375</v>
+        <v>378.7384715825319</v>
       </c>
       <c r="B12" t="n">
-        <v>560</v>
+        <v>46.27682754397392</v>
       </c>
       <c r="C12" t="n">
-        <v>133.06640625</v>
+        <v>45.43010088801384</v>
       </c>
       <c r="D12" t="n">
-        <v>73.94921875</v>
+        <v>47.74448674917221</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="n">
-        <v>570.46875</v>
+        <v>1153.128231532872</v>
       </c>
       <c r="B13" t="n">
-        <v>33.96875</v>
+        <v>540.1477833762765</v>
       </c>
       <c r="C13" t="n">
-        <v>52.53125</v>
+        <v>74.27141867205501</v>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>64.4721601838246</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="n">
-        <v>504</v>
+        <v>613.9501953125</v>
       </c>
       <c r="B14" t="n">
-        <v>39.96875</v>
+        <v>26.1767578125</v>
       </c>
       <c r="C14" t="n">
-        <v>43.625</v>
+        <v>53.44970703125</v>
       </c>
       <c r="D14" t="n">
-        <v>40.0625</v>
+        <v>45.19677734375</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="n">
-        <v>347.96875</v>
+        <v>659.8125</v>
       </c>
       <c r="B15" t="n">
-        <v>65.03125</v>
+        <v>23.91015625</v>
       </c>
       <c r="C15" t="n">
-        <v>36.0625</v>
+        <v>46.0078125</v>
       </c>
       <c r="D15" t="n">
-        <v>34.75</v>
+        <v>42.19140625</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="n">
-        <v>700.984375</v>
+        <v>696.5696500241756</v>
       </c>
       <c r="B16" t="n">
-        <v>18.96875</v>
+        <v>22.91747459769249</v>
       </c>
       <c r="C16" t="n">
-        <v>57.734375</v>
+        <v>50.00608071684837</v>
       </c>
       <c r="D16" t="n">
-        <v>46</v>
+        <v>42.69496527314186</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>339.1393728256226</v>
+      </c>
+      <c r="B17" t="n">
+        <v>61.26700496673584</v>
+      </c>
+      <c r="C17" t="n">
+        <v>45.68721961975098</v>
+      </c>
+      <c r="D17" t="n">
+        <v>40.89814186096191</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>475.2666015625</v>
+      </c>
+      <c r="B18" t="n">
+        <v>34.68310546875</v>
+      </c>
+      <c r="C18" t="n">
+        <v>47.76611328125</v>
+      </c>
+      <c r="D18" t="n">
+        <v>47.888671875</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>573</v>
+      </c>
+      <c r="B19" t="n">
+        <v>548</v>
+      </c>
+      <c r="C19" t="n">
+        <v>142</v>
+      </c>
+      <c r="D19" t="n">
+        <v>132</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1235604606525912</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1131.75</v>
+      </c>
+      <c r="B20" t="n">
+        <v>745</v>
+      </c>
+      <c r="C20" t="n">
+        <v>199</v>
+      </c>
+      <c r="D20" t="n">
+        <v>111</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>613.75</v>
+      </c>
+      <c r="B21" t="n">
+        <v>637</v>
+      </c>
+      <c r="C21" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>638.75</v>
+      </c>
+      <c r="B22" t="n">
+        <v>738.75</v>
+      </c>
+      <c r="C22" t="n">
+        <v>240</v>
+      </c>
+      <c r="D22" t="n">
+        <v>120.75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>631</v>
+      </c>
+      <c r="B23" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>152</v>
+      </c>
+      <c r="D23" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>732</v>
+      </c>
+      <c r="B24" t="n">
+        <v>401.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0795398680543952</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1740</v>
+      </c>
+      <c r="B25" t="n">
+        <v>712.25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>95.75</v>
+      </c>
+      <c r="D25" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>848</v>
+      </c>
+      <c r="B26" t="n">
+        <v>522</v>
+      </c>
+      <c r="C26" t="n">
+        <v>142</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1734742358" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1734742358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1734742358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1734742358" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1734742358" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1734742358" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.563910" defaultRowHeight="15.80"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.56391" defaultRowHeight="15.8"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>147.6863583959016</v>
+      </c>
+      <c r="B2" t="n">
+        <v>823.7052087110637</v>
+      </c>
+      <c r="C2" t="n">
+        <v>96.70962573809418</v>
+      </c>
+      <c r="D2" t="n">
+        <v>66.1001092507444</v>
+      </c>
+      <c r="E2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>259.7292680648567</v>
+      </c>
+      <c r="B3" t="n">
+        <v>847.9578474563151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>111.2720225262475</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.80852055416224</v>
+      </c>
+      <c r="E3" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>375.9873331825365</v>
+      </c>
+      <c r="B4" t="n">
+        <v>756.3974708397582</v>
+      </c>
+      <c r="C4" t="n">
+        <v>84.42732635175344</v>
+      </c>
+      <c r="D4" t="n">
+        <v>112.4159864657559</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1379.617136999994</v>
+      </c>
+      <c r="B5" t="n">
+        <v>814.9880290932688</v>
+      </c>
+      <c r="C5" t="n">
+        <v>118.7443843368856</v>
+      </c>
+      <c r="D5" t="n">
+        <v>86.73051252896221</v>
+      </c>
+      <c r="E5" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01247172110893758</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1070.027739460551</v>
+      </c>
+      <c r="B6" t="n">
+        <v>856.5863363014796</v>
+      </c>
+      <c r="C6" t="n">
+        <v>149.9049363799713</v>
+      </c>
+      <c r="D6" t="n">
+        <v>86.1303219973488</v>
+      </c>
+      <c r="E6" t="n">
+        <v>35</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.02413866657437842</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>887.7918483654503</v>
+      </c>
+      <c r="B7" t="n">
+        <v>858.5458402913646</v>
+      </c>
+      <c r="C7" t="n">
+        <v>157.6246281540371</v>
+      </c>
+      <c r="D7" t="n">
+        <v>86.21144157199888</v>
+      </c>
+      <c r="E7" t="n">
+        <v>32</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.06989086916780746</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1208.92000272819</v>
+      </c>
+      <c r="B8" t="n">
+        <v>829.1693938223543</v>
+      </c>
+      <c r="C8" t="n">
+        <v>175.265271465123</v>
+      </c>
+      <c r="D8" t="n">
+        <v>88.76137074748786</v>
+      </c>
+      <c r="E8" t="n">
+        <v>48</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59.11249134403016</v>
+      </c>
+      <c r="B9" t="n">
+        <v>813.9945832451841</v>
+      </c>
+      <c r="C9" t="n">
+        <v>79.43136795472894</v>
+      </c>
+      <c r="D9" t="n">
+        <v>57.0029214263342</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>721.8964800337851</v>
+      </c>
+      <c r="B10" t="n">
+        <v>870.5802904856732</v>
+      </c>
+      <c r="C10" t="n">
+        <v>151.3220436766003</v>
+      </c>
+      <c r="D10" t="n">
+        <v>79.53285225039349</v>
+      </c>
+      <c r="E10" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1397319611646523</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>446.6544642330129</v>
+      </c>
+      <c r="B11" t="n">
+        <v>538.0861048492236</v>
+      </c>
+      <c r="C11" t="n">
+        <v>52.95555881122903</v>
+      </c>
+      <c r="D11" t="n">
+        <v>98.18077617316652</v>
+      </c>
+      <c r="E11" t="n">
+        <v>39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>187.4210186328922</v>
+      </c>
+      <c r="B12" t="n">
+        <v>480.1089399812421</v>
+      </c>
+      <c r="C12" t="n">
+        <v>41.9284377039139</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80.00927511057765</v>
+      </c>
+      <c r="E12" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14.37646190877314</v>
+      </c>
+      <c r="B13" t="n">
+        <v>497.4254949246433</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32.48139025969667</v>
+      </c>
+      <c r="D13" t="n">
+        <v>73.69947764584695</v>
+      </c>
+      <c r="E13" t="n">
+        <v>54</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>47.40984304819193</v>
+      </c>
+      <c r="B14" t="n">
+        <v>491.5625994886531</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33.89882996856448</v>
+      </c>
+      <c r="D14" t="n">
+        <v>77.40681395842037</v>
+      </c>
+      <c r="E14" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>127.8612780032082</v>
+      </c>
+      <c r="B15" t="n">
+        <v>483.2913354526663</v>
+      </c>
+      <c r="C15" t="n">
+        <v>38.50472719790844</v>
+      </c>
+      <c r="D15" t="n">
+        <v>81.90358269122072</v>
+      </c>
+      <c r="E15" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1538.935609785718</v>
+      </c>
+      <c r="B16" t="n">
+        <v>788.1202094560139</v>
+      </c>
+      <c r="C16" t="n">
+        <v>112.4437356611778</v>
+      </c>
+      <c r="D16" t="n">
+        <v>78.59921761041085</v>
+      </c>
+      <c r="E16" t="n">
+        <v>54</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>501.101207346652</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.03164851805127</v>
+      </c>
+      <c r="D17" t="n">
+        <v>71.99304905156089</v>
+      </c>
+      <c r="E17" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.001280594816994604</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>89.83949598971667</v>
+      </c>
+      <c r="B18" t="n">
+        <v>490.3110714307231</v>
+      </c>
+      <c r="C18" t="n">
+        <v>35.1137330300678</v>
+      </c>
+      <c r="D18" t="n">
+        <v>77.73588851244649</v>
+      </c>
+      <c r="E18" t="n">
+        <v>51</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>315.4025513771921</v>
+      </c>
+      <c r="B19" t="n">
+        <v>463.1174958366901</v>
+      </c>
+      <c r="C19" t="n">
+        <v>48.59764630906284</v>
+      </c>
+      <c r="D19" t="n">
+        <v>84.4167310371995</v>
+      </c>
+      <c r="E19" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1656.622799073018</v>
+      </c>
+      <c r="B20" t="n">
+        <v>761.2150650083763</v>
+      </c>
+      <c r="C20" t="n">
+        <v>101.2223398416405</v>
+      </c>
+      <c r="D20" t="n">
+        <v>69.89269774737036</v>
+      </c>
+      <c r="E20" t="n">
+        <v>54</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1764.598746453489</v>
+      </c>
+      <c r="B21" t="n">
+        <v>742.9583118229764</v>
+      </c>
+      <c r="C21" t="n">
+        <v>82.14900909566572</v>
+      </c>
+      <c r="D21" t="n">
+        <v>60.43234530982704</v>
+      </c>
+      <c r="E21" t="n">
+        <v>49</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1520.573364257812</v>
+      </c>
+      <c r="B22" t="n">
+        <v>101.6162109375</v>
+      </c>
+      <c r="C22" t="n">
+        <v>54.3433837890625</v>
+      </c>
+      <c r="D22" t="n">
+        <v>38.32275390625</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>599.9948426556639</v>
+      </c>
+      <c r="B23" t="n">
+        <v>52.46629876370753</v>
+      </c>
+      <c r="C23" t="n">
+        <v>35.77179991857702</v>
+      </c>
+      <c r="D23" t="n">
+        <v>54.47288367870897</v>
+      </c>
+      <c r="E23" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>308.1304045915604</v>
+      </c>
+      <c r="B24" t="n">
+        <v>210.0004144906998</v>
+      </c>
+      <c r="C24" t="n">
+        <v>74.41182160377502</v>
+      </c>
+      <c r="D24" t="n">
+        <v>47.26800763607025</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>642.0619283403009</v>
+      </c>
+      <c r="B25" t="n">
+        <v>44.44323863195291</v>
+      </c>
+      <c r="C25" t="n">
+        <v>41.02382519081971</v>
+      </c>
+      <c r="D25" t="n">
+        <v>54.36742307758595</v>
+      </c>
+      <c r="E25" t="n">
+        <v>41</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>355.8125</v>
+      </c>
+      <c r="B26" t="n">
+        <v>153.3125</v>
+      </c>
+      <c r="C26" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>51.9375</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>89.19170669970188</v>
+      </c>
+      <c r="B27" t="n">
+        <v>257.0326125845042</v>
+      </c>
+      <c r="C27" t="n">
+        <v>55.42715038516468</v>
+      </c>
+      <c r="D27" t="n">
+        <v>48.75125161184121</v>
+      </c>
+      <c r="E27" t="n">
+        <v>45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1037.215654609143</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10.844554162235</v>
+      </c>
+      <c r="C28" t="n">
+        <v>89.69307732966263</v>
+      </c>
+      <c r="D28" t="n">
+        <v>52.7665951938834</v>
+      </c>
+      <c r="E28" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03306671429365168</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>148.3637035208486</v>
+      </c>
+      <c r="B29" t="n">
+        <v>247.1343568954765</v>
+      </c>
+      <c r="C29" t="n">
+        <v>54.92053745703959</v>
+      </c>
+      <c r="D29" t="n">
+        <v>43.72903060724815</v>
+      </c>
+      <c r="E29" t="n">
+        <v>45</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>958.280936062336</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20.87750843167305</v>
+      </c>
+      <c r="C30" t="n">
+        <v>69.69882847368717</v>
+      </c>
+      <c r="D30" t="n">
+        <v>47.87495049834251</v>
+      </c>
+      <c r="E30" t="n">
+        <v>23</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.04128993198256986</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1654.433403015137</v>
+      </c>
+      <c r="B31" t="n">
+        <v>113.3260345458984</v>
+      </c>
+      <c r="C31" t="n">
+        <v>48.92171478271484</v>
+      </c>
+      <c r="D31" t="n">
+        <v>39.76600646972656</v>
+      </c>
+      <c r="E31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0727044228328627</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>233.644775390625</v>
+      </c>
+      <c r="B32" t="n">
+        <v>172.76123046875</v>
+      </c>
+      <c r="C32" t="n">
+        <v>33.769775390625</v>
+      </c>
+      <c r="D32" t="n">
+        <v>52.231201171875</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.00423367047467623</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>691.25</v>
+      </c>
+      <c r="B33" t="n">
+        <v>46</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.1875</v>
+      </c>
+      <c r="D33" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1670111271163441</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1712.565870560706</v>
+      </c>
+      <c r="B34" t="n">
+        <v>122.9020933955908</v>
+      </c>
+      <c r="C34" t="n">
+        <v>46.19511089473963</v>
+      </c>
+      <c r="D34" t="n">
+        <v>39.12507434934378</v>
+      </c>
+      <c r="E34" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.1086569034548917</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1739.815908975899</v>
+      </c>
+      <c r="B35" t="n">
+        <v>80.24159808270633</v>
+      </c>
+      <c r="C35" t="n">
+        <v>40.73570198565722</v>
+      </c>
+      <c r="D35" t="n">
+        <v>34.30202981643379</v>
+      </c>
+      <c r="E35" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1595.153747558594</v>
+      </c>
+      <c r="B36" t="n">
+        <v>101.8415546417236</v>
+      </c>
+      <c r="C36" t="n">
+        <v>49.79322624206543</v>
+      </c>
+      <c r="D36" t="n">
+        <v>44.6943302154541</v>
+      </c>
+      <c r="E36" t="n">
+        <v>11</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.005524304207556129</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>237.7540720300367</v>
+      </c>
+      <c r="B37" t="n">
+        <v>461.0961671593104</v>
+      </c>
+      <c r="C37" t="n">
+        <v>49.28288617457474</v>
+      </c>
+      <c r="D37" t="n">
+        <v>91.87647776363337</v>
+      </c>
+      <c r="E37" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>310.22265625</v>
+      </c>
+      <c r="B38" t="n">
+        <v>160.267578125</v>
+      </c>
+      <c r="C38" t="n">
+        <v>31.529296875</v>
+      </c>
+      <c r="D38" t="n">
+        <v>53.25390625</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02180037492416084</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1790.098761674482</v>
+      </c>
+      <c r="B39" t="n">
+        <v>88.4589920300059</v>
+      </c>
+      <c r="C39" t="n">
+        <v>39.34313166327775</v>
+      </c>
+      <c r="D39" t="n">
+        <v>37.60093117225915</v>
+      </c>
+      <c r="E39" t="n">
+        <v>30</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1838.269980203127</v>
+      </c>
+      <c r="B40" t="n">
+        <v>101.380894047441</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38.98068415815942</v>
+      </c>
+      <c r="D40" t="n">
+        <v>36.50702647748403</v>
+      </c>
+      <c r="E40" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.014147339650621</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1123.872218318749</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9.067216381896287</v>
+      </c>
+      <c r="C41" t="n">
+        <v>85.74805803224444</v>
+      </c>
+      <c r="D41" t="n">
+        <v>51.75909973494709</v>
+      </c>
+      <c r="E41" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1884.433570419438</v>
+      </c>
+      <c r="B42" t="n">
+        <v>715.8172754673287</v>
+      </c>
+      <c r="C42" t="n">
+        <v>32.7070536268875</v>
+      </c>
+      <c r="D42" t="n">
+        <v>59.181308462983</v>
+      </c>
+      <c r="E42" t="n">
+        <v>27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>194.2831785678864</v>
+      </c>
+      <c r="B43" t="n">
+        <v>176.9399883747101</v>
+      </c>
+      <c r="C43" t="n">
+        <v>39.88462948799133</v>
+      </c>
+      <c r="D43" t="n">
+        <v>57.10956239700317</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.04316788742585867</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1770.80517578125</v>
+      </c>
+      <c r="B44" t="n">
+        <v>133.80712890625</v>
+      </c>
+      <c r="C44" t="n">
+        <v>38.75390625</v>
+      </c>
+      <c r="D44" t="n">
+        <v>37.40673828125</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.04200349261087379</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.937622308731079</v>
+      </c>
+      <c r="B45" t="n">
+        <v>284.2136383941397</v>
+      </c>
+      <c r="C45" t="n">
+        <v>40.36008174251765</v>
+      </c>
+      <c r="D45" t="n">
+        <v>42.72485437989235</v>
+      </c>
+      <c r="E45" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1222.360677370802</v>
+      </c>
+      <c r="B46" t="n">
+        <v>15.76628600619734</v>
+      </c>
+      <c r="C46" t="n">
+        <v>69.95256168581545</v>
+      </c>
+      <c r="D46" t="n">
+        <v>42.22995042987168</v>
+      </c>
+      <c r="E46" t="n">
+        <v>26</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1680.133528470993</v>
+      </c>
+      <c r="B47" t="n">
+        <v>58.68568587303162</v>
+      </c>
+      <c r="C47" t="n">
+        <v>52.6294093132019</v>
+      </c>
+      <c r="D47" t="n">
+        <v>37.46866965293884</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>540.5722689628601</v>
+      </c>
+      <c r="B48" t="n">
+        <v>801.3271656036377</v>
+      </c>
+      <c r="C48" t="n">
+        <v>134.1685822010041</v>
+      </c>
+      <c r="D48" t="n">
+        <v>113.4233202934265</v>
+      </c>
+      <c r="E48" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.003055339997922067</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>223.5303206899262</v>
+      </c>
+      <c r="B49" t="n">
+        <v>228.2570255029132</v>
+      </c>
+      <c r="C49" t="n">
+        <v>63.53121651441325</v>
+      </c>
+      <c r="D49" t="n">
+        <v>45.25799177208683</v>
+      </c>
+      <c r="E49" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01180080798685709</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>875.625</v>
+      </c>
+      <c r="B50" t="n">
+        <v>19.8046875</v>
+      </c>
+      <c r="C50" t="n">
+        <v>71.421875</v>
+      </c>
+      <c r="D50" t="n">
+        <v>48.73828125</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.1478963049562815</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1557.446769714355</v>
+      </c>
+      <c r="B51" t="n">
+        <v>43.44094085693359</v>
+      </c>
+      <c r="C51" t="n">
+        <v>53.705078125</v>
+      </c>
+      <c r="D51" t="n">
+        <v>34.79450988769531</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1637.34375</v>
+      </c>
+      <c r="B52" t="n">
+        <v>60.390625</v>
+      </c>
+      <c r="C52" t="n">
+        <v>39.578125</v>
+      </c>
+      <c r="D52" t="n">
+        <v>36.046875</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1473.806396484375</v>
+      </c>
+      <c r="B53" t="n">
+        <v>38.948974609375</v>
+      </c>
+      <c r="C53" t="n">
+        <v>60.508056640625</v>
+      </c>
+      <c r="D53" t="n">
+        <v>40.17138671875</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>800.375</v>
+      </c>
+      <c r="B54" t="n">
+        <v>32</v>
+      </c>
+      <c r="C54" t="n">
+        <v>68.875</v>
+      </c>
+      <c r="D54" t="n">
+        <v>38.125</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41.93771701359924</v>
+      </c>
+      <c r="B55" t="n">
+        <v>274.721486795017</v>
+      </c>
+      <c r="C55" t="n">
+        <v>42.07468104130089</v>
+      </c>
+      <c r="D55" t="n">
+        <v>42.72123070566477</v>
+      </c>
+      <c r="E55" t="n">
+        <v>42</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.01007831715365357</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1821.807373046875</v>
+      </c>
+      <c r="B56" t="n">
+        <v>144.459716796875</v>
+      </c>
+      <c r="C56" t="n">
+        <v>33.675048828125</v>
+      </c>
+      <c r="D56" t="n">
+        <v>34.802490234375</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.06122159812743799</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1387.81779551506</v>
+      </c>
+      <c r="B57" t="n">
+        <v>26.46469461917877</v>
+      </c>
+      <c r="C57" t="n">
+        <v>61.73635721206665</v>
+      </c>
+      <c r="D57" t="n">
+        <v>42.8628910779953</v>
+      </c>
+      <c r="E57" t="n">
+        <v>20</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>702.2475981082816</v>
+      </c>
+      <c r="B58" t="n">
+        <v>34.56755092823914</v>
+      </c>
+      <c r="C58" t="n">
+        <v>76.65811239436607</v>
+      </c>
+      <c r="D58" t="n">
+        <v>43.20865185187449</v>
+      </c>
+      <c r="E58" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1390.08984375</v>
+      </c>
+      <c r="B59" t="n">
+        <v>76.16015625</v>
+      </c>
+      <c r="C59" t="n">
+        <v>75.494140625</v>
+      </c>
+      <c r="D59" t="n">
+        <v>43.65625</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.1735327938215414</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1865.625</v>
+      </c>
+      <c r="B60" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>35</v>
+      </c>
+      <c r="D60" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.1007203027713344</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1301.388687133789</v>
+      </c>
+      <c r="B61" t="n">
+        <v>18.36268615722656</v>
+      </c>
+      <c r="C61" t="n">
+        <v>76.56475830078125</v>
+      </c>
+      <c r="D61" t="n">
+        <v>42.603759765625</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1154.04833984375</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61.18170166015625</v>
+      </c>
+      <c r="C62" t="n">
+        <v>85.180908203125</v>
+      </c>
+      <c r="D62" t="n">
+        <v>47.87985229492188</v>
+      </c>
+      <c r="E62" t="n">
+        <v>13</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="B63" t="n">
+        <v>265</v>
+      </c>
+      <c r="C63" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>53</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>297</v>
+      </c>
+      <c r="B64" t="n">
+        <v>211</v>
+      </c>
+      <c r="C64" t="n">
+        <v>187</v>
+      </c>
+      <c r="D64" t="n">
+        <v>89</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>458.9966406822205</v>
+      </c>
+      <c r="B65" t="n">
+        <v>454.0812797546387</v>
+      </c>
+      <c r="C65" t="n">
+        <v>50.31403350830078</v>
+      </c>
+      <c r="D65" t="n">
+        <v>79.07584810256958</v>
+      </c>
+      <c r="E65" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>488</v>
+      </c>
+      <c r="B66" t="n">
+        <v>527</v>
+      </c>
+      <c r="C66" t="n">
+        <v>36</v>
+      </c>
+      <c r="D66" t="n">
+        <v>116</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.1473096778130339</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34.86328125</v>
+      </c>
+      <c r="B67" t="n">
+        <v>199.15234375</v>
+      </c>
+      <c r="C67" t="n">
+        <v>47.3203125</v>
+      </c>
+      <c r="D67" t="n">
+        <v>35.68359375</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>297</v>
+      </c>
+      <c r="B68" t="n">
+        <v>222</v>
+      </c>
+      <c r="C68" t="n">
+        <v>42</v>
+      </c>
+      <c r="D68" t="n">
+        <v>45</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>165.0250854492188</v>
+      </c>
+      <c r="B69" t="n">
+        <v>193.4580688476562</v>
+      </c>
+      <c r="C69" t="n">
+        <v>32.00518798828125</v>
+      </c>
+      <c r="D69" t="n">
+        <v>49.73785400390625</v>
+      </c>
+      <c r="E69" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03279247654365927</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1581</v>
+      </c>
+      <c r="B70" t="n">
+        <v>109</v>
+      </c>
+      <c r="C70" t="n">
+        <v>29</v>
+      </c>
+      <c r="D70" t="n">
+        <v>34</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.2139612728370172</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1427</v>
+      </c>
+      <c r="B71" t="n">
+        <v>34</v>
+      </c>
+      <c r="C71" t="n">
+        <v>40</v>
+      </c>
+      <c r="D71" t="n">
+        <v>36</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="B72" t="n">
+        <v>831.75</v>
+      </c>
+      <c r="C72" t="n">
+        <v>112</v>
+      </c>
+      <c r="D72" t="n">
+        <v>90</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.3289005018859033</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>46</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.1181347150259067</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>615</v>
+      </c>
+      <c r="B74" t="n">
+        <v>50</v>
+      </c>
+      <c r="C74" t="n">
+        <v>37</v>
+      </c>
+      <c r="D74" t="n">
+        <v>38</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.1172839506172839</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>377</v>
+      </c>
+      <c r="B75" t="n">
+        <v>76</v>
+      </c>
+      <c r="C75" t="n">
+        <v>67</v>
+      </c>
+      <c r="D75" t="n">
+        <v>35</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1441.28271484375</v>
+      </c>
+      <c r="B76" t="n">
+        <v>80.98779296875</v>
+      </c>
+      <c r="C76" t="n">
+        <v>75.519775390625</v>
+      </c>
+      <c r="D76" t="n">
+        <v>44.619140625</v>
+      </c>
+      <c r="E76" t="n">
+        <v>13</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>211</v>
+      </c>
+      <c r="B77" t="n">
+        <v>276</v>
+      </c>
+      <c r="C77" t="n">
+        <v>66</v>
+      </c>
+      <c r="D77" t="n">
+        <v>47</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01015406162464986</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1893</v>
+      </c>
+      <c r="B78" t="n">
+        <v>68</v>
+      </c>
+      <c r="C78" t="n">
+        <v>25</v>
+      </c>
+      <c r="D78" t="n">
+        <v>34</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>537.5</v>
+      </c>
+      <c r="B79" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>49</v>
+      </c>
+      <c r="D79" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>272</v>
+      </c>
+      <c r="B80" t="n">
+        <v>911</v>
+      </c>
+      <c r="C80" t="n">
+        <v>136</v>
+      </c>
+      <c r="D80" t="n">
+        <v>64</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.01267105930055753</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>475</v>
+      </c>
+      <c r="B81" t="n">
+        <v>649</v>
+      </c>
+      <c r="C81" t="n">
+        <v>70</v>
+      </c>
+      <c r="D81" t="n">
+        <v>112</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>564</v>
+      </c>
+      <c r="B82" t="n">
+        <v>109.125</v>
+      </c>
+      <c r="C82" t="n">
+        <v>50</v>
+      </c>
+      <c r="D82" t="n">
+        <v>63</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1734742358" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1734742358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1734742358" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1734742358" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1734742358" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1734742358" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
 </worksheet>
 </file>
--- a/dataBase.xlsx
+++ b/dataBase.xlsx
@@ -993,7 +993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD25"/>
@@ -1003,7 +1003,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -1020,13 +1020,13 @@
         <v>66.1001092507444</v>
       </c>
       <c r="E2" t="n">
-        <v>47.5</v>
+        <v>43.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1662674063699013</v>
       </c>
     </row>
     <row r="3">
@@ -1043,10 +1043,10 @@
         <v>64.80852055416224</v>
       </c>
       <c r="E3" t="n">
-        <v>46.5</v>
+        <v>42.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>112.4159864657559</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>30.5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1077,25 +1077,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1379.617136999994</v>
+        <v>1389.841215121338</v>
       </c>
       <c r="B5" t="n">
-        <v>814.9880290932688</v>
+        <v>814.9934052805404</v>
       </c>
       <c r="C5" t="n">
-        <v>118.7443843368856</v>
+        <v>125.0985704063322</v>
       </c>
       <c r="D5" t="n">
-        <v>86.73051252896221</v>
+        <v>69.21477795716039</v>
       </c>
       <c r="E5" t="n">
-        <v>39.5</v>
+        <v>51.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01247172110893758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02413866657437842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06989086916780746</v>
+        <v>0.06786864871233229</v>
       </c>
     </row>
     <row r="8">
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1397319611646523</v>
+        <v>0.1126768490284598</v>
       </c>
     </row>
     <row r="11">
@@ -1227,10 +1227,10 @@
         <v>98.18077617316652</v>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1238,19 +1238,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>187.4210186328922</v>
+        <v>185.0567434127522</v>
       </c>
       <c r="B12" t="n">
-        <v>480.1089399812421</v>
+        <v>483.2441672216751</v>
       </c>
       <c r="C12" t="n">
-        <v>41.9284377039139</v>
+        <v>37.88230674748631</v>
       </c>
       <c r="D12" t="n">
-        <v>80.00927511057765</v>
+        <v>79.36816632693129</v>
       </c>
       <c r="E12" t="n">
-        <v>43.5</v>
+        <v>55.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1261,42 +1261,42 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14.37646190877314</v>
+        <v>11.7156680815207</v>
       </c>
       <c r="B13" t="n">
-        <v>497.4254949246433</v>
+        <v>500.4432191149718</v>
       </c>
       <c r="C13" t="n">
-        <v>32.48139025969667</v>
+        <v>32.25304721441887</v>
       </c>
       <c r="D13" t="n">
-        <v>73.69947764584695</v>
+        <v>73.18083483340963</v>
       </c>
       <c r="E13" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.07229656482301486</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>47.40984304819193</v>
+        <v>44.93027584058794</v>
       </c>
       <c r="B14" t="n">
-        <v>491.5625994886531</v>
+        <v>495.6454010252658</v>
       </c>
       <c r="C14" t="n">
-        <v>33.89882996856448</v>
+        <v>34.01682100341029</v>
       </c>
       <c r="D14" t="n">
-        <v>77.40681395842037</v>
+        <v>75.84946455418907</v>
       </c>
       <c r="E14" t="n">
-        <v>49.5</v>
+        <v>61.5</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1307,19 +1307,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>127.8612780032082</v>
+        <v>126.99435089795</v>
       </c>
       <c r="B15" t="n">
-        <v>483.2913354526663</v>
+        <v>476.6406961268195</v>
       </c>
       <c r="C15" t="n">
-        <v>38.50472719790844</v>
+        <v>40.99768181816356</v>
       </c>
       <c r="D15" t="n">
-        <v>81.90358269122072</v>
+        <v>86.98508388249297</v>
       </c>
       <c r="E15" t="n">
-        <v>40.5</v>
+        <v>52.5</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1538.935609785718</v>
+        <v>1530.816390529733</v>
       </c>
       <c r="B16" t="n">
-        <v>788.1202094560139</v>
+        <v>786.5014941917617</v>
       </c>
       <c r="C16" t="n">
-        <v>112.4437356611778</v>
+        <v>114.4625106776517</v>
       </c>
       <c r="D16" t="n">
-        <v>78.59921761041085</v>
+        <v>75.70839824648692</v>
       </c>
       <c r="E16" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1356,39 +1356,39 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>501.101207346652</v>
+        <v>502.525301836663</v>
       </c>
       <c r="C17" t="n">
-        <v>14.03164851805127</v>
+        <v>14.75791212951282</v>
       </c>
       <c r="D17" t="n">
-        <v>71.99304905156089</v>
+        <v>71.99826226289022</v>
       </c>
       <c r="E17" t="n">
-        <v>46.5</v>
+        <v>45</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001280594816994604</v>
+        <v>0.0557349091837658</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>89.83949598971667</v>
+        <v>87.54805651757562</v>
       </c>
       <c r="B18" t="n">
-        <v>490.3110714307231</v>
+        <v>493.7447048514235</v>
       </c>
       <c r="C18" t="n">
-        <v>35.1137330300678</v>
+        <v>36.16360198560304</v>
       </c>
       <c r="D18" t="n">
-        <v>77.73588851244649</v>
+        <v>73.93914450403136</v>
       </c>
       <c r="E18" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1399,19 +1399,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>315.4025513771921</v>
+        <v>317.8123541385198</v>
       </c>
       <c r="B19" t="n">
-        <v>463.1174958366901</v>
+        <v>468.082059935507</v>
       </c>
       <c r="C19" t="n">
-        <v>48.59764630906284</v>
+        <v>47.52455997224342</v>
       </c>
       <c r="D19" t="n">
-        <v>84.4167310371995</v>
+        <v>88.61069744410088</v>
       </c>
       <c r="E19" t="n">
-        <v>24.5</v>
+        <v>36.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1422,19 +1422,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1656.622799073018</v>
+        <v>1658.127105175555</v>
       </c>
       <c r="B20" t="n">
-        <v>761.2150650083763</v>
+        <v>764.0513220373556</v>
       </c>
       <c r="C20" t="n">
-        <v>101.2223398416405</v>
+        <v>101.7695855321879</v>
       </c>
       <c r="D20" t="n">
-        <v>69.89269774737036</v>
+        <v>67.62936833441098</v>
       </c>
       <c r="E20" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1445,19 +1445,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1764.598746453489</v>
+        <v>1769.006493834583</v>
       </c>
       <c r="B21" t="n">
-        <v>742.9583118229764</v>
+        <v>745.1052144315975</v>
       </c>
       <c r="C21" t="n">
-        <v>82.14900909566572</v>
+        <v>82.35452856667375</v>
       </c>
       <c r="D21" t="n">
-        <v>60.43234530982704</v>
+        <v>60.06724422492915</v>
       </c>
       <c r="E21" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1491,65 +1491,65 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>599.9948426556639</v>
+        <v>591.9785055520618</v>
       </c>
       <c r="B23" t="n">
-        <v>52.46629876370753</v>
+        <v>59.10833261477287</v>
       </c>
       <c r="C23" t="n">
-        <v>35.77179991857702</v>
+        <v>38.98783554671597</v>
       </c>
       <c r="D23" t="n">
-        <v>54.47288367870897</v>
+        <v>51.18842360093497</v>
       </c>
       <c r="E23" t="n">
-        <v>37.5</v>
+        <v>46.5</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.03552238551396045</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>308.1304045915604</v>
+        <v>300.766300573945</v>
       </c>
       <c r="B24" t="n">
-        <v>210.0004144906998</v>
+        <v>211.3750518113375</v>
       </c>
       <c r="C24" t="n">
-        <v>74.41182160377502</v>
+        <v>69.92647770047188</v>
       </c>
       <c r="D24" t="n">
-        <v>47.26800763607025</v>
+        <v>47.40850095450878</v>
       </c>
       <c r="E24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.002705768207657078</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>642.0619283403009</v>
+        <v>641.8603666817237</v>
       </c>
       <c r="B25" t="n">
-        <v>44.44323863195291</v>
+        <v>45.50840899380663</v>
       </c>
       <c r="C25" t="n">
-        <v>41.02382519081971</v>
+        <v>40.70337495732198</v>
       </c>
       <c r="D25" t="n">
-        <v>54.36742307758595</v>
+        <v>54.4300213435248</v>
       </c>
       <c r="E25" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1560,19 +1560,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>355.8125</v>
+        <v>359.3408203125</v>
       </c>
       <c r="B26" t="n">
-        <v>153.3125</v>
+        <v>150.9267578125</v>
       </c>
       <c r="C26" t="n">
-        <v>33.25</v>
+        <v>39.73828125</v>
       </c>
       <c r="D26" t="n">
-        <v>51.9375</v>
+        <v>50.3427734375</v>
       </c>
       <c r="E26" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1583,19 +1583,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>89.19170669970188</v>
+        <v>91.80815227214347</v>
       </c>
       <c r="B27" t="n">
-        <v>257.0326125845042</v>
+        <v>260.2363360870568</v>
       </c>
       <c r="C27" t="n">
-        <v>55.42715038516468</v>
+        <v>53.290631628512</v>
       </c>
       <c r="D27" t="n">
-        <v>48.75125161184121</v>
+        <v>41.94818145791305</v>
       </c>
       <c r="E27" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1606,48 +1606,48 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1037.215654609143</v>
+        <v>1021.300244603268</v>
       </c>
       <c r="B28" t="n">
-        <v>10.844554162235</v>
+        <v>10.32569615878492</v>
       </c>
       <c r="C28" t="n">
-        <v>89.69307732966263</v>
+        <v>85.21395433327598</v>
       </c>
       <c r="D28" t="n">
-        <v>52.7665951938834</v>
+        <v>47.19947804990443</v>
       </c>
       <c r="E28" t="n">
-        <v>32.5</v>
+        <v>38.5</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03306671429365168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>148.3637035208486</v>
+        <v>153.0834519668783</v>
       </c>
       <c r="B29" t="n">
-        <v>247.1343568954765</v>
+        <v>246.004431081623</v>
       </c>
       <c r="C29" t="n">
-        <v>54.92053745703959</v>
+        <v>53.85515834944156</v>
       </c>
       <c r="D29" t="n">
-        <v>43.72903060724815</v>
+        <v>38.70597277580956</v>
       </c>
       <c r="E29" t="n">
-        <v>45</v>
+        <v>52.5</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.005266941089055781</v>
       </c>
     </row>
     <row r="30">
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04128993198256986</v>
+        <v>0.03561258711364563</v>
       </c>
     </row>
     <row r="31">
@@ -1693,139 +1693,139 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0727044228328627</v>
+        <v>0.1038228228343384</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>233.644775390625</v>
+        <v>231.9475746154785</v>
       </c>
       <c r="B32" t="n">
-        <v>172.76123046875</v>
+        <v>178.6525192260742</v>
       </c>
       <c r="C32" t="n">
-        <v>33.769775390625</v>
+        <v>37.51202774047852</v>
       </c>
       <c r="D32" t="n">
-        <v>52.231201171875</v>
+        <v>50.44111251831055</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00423367047467623</v>
+        <v>0.08234459715666002</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>691.25</v>
+        <v>1712.565870560706</v>
       </c>
       <c r="B33" t="n">
-        <v>46</v>
+        <v>122.9020933955908</v>
       </c>
       <c r="C33" t="n">
-        <v>33.1875</v>
+        <v>46.19511089473963</v>
       </c>
       <c r="D33" t="n">
-        <v>54.5</v>
+        <v>39.12507434934378</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>22.5</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1670111271163441</v>
+        <v>0.1735203507416192</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1712.565870560706</v>
+        <v>1739.815908975899</v>
       </c>
       <c r="B34" t="n">
-        <v>122.9020933955908</v>
+        <v>80.24159808270633</v>
       </c>
       <c r="C34" t="n">
-        <v>46.19511089473963</v>
+        <v>40.73570198565722</v>
       </c>
       <c r="D34" t="n">
-        <v>39.12507434934378</v>
+        <v>34.30202981643379</v>
       </c>
       <c r="E34" t="n">
-        <v>24.5</v>
+        <v>27</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1086569034548917</v>
+        <v>0.006620165759444966</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1739.815908975899</v>
+        <v>1595.153747558594</v>
       </c>
       <c r="B35" t="n">
-        <v>80.24159808270633</v>
+        <v>101.8415546417236</v>
       </c>
       <c r="C35" t="n">
-        <v>40.73570198565722</v>
+        <v>49.79322624206543</v>
       </c>
       <c r="D35" t="n">
-        <v>34.30202981643379</v>
+        <v>44.6943302154541</v>
       </c>
       <c r="E35" t="n">
-        <v>27.5</v>
+        <v>11</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.01183119416789782</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1595.153747558594</v>
+        <v>237.3729868339917</v>
       </c>
       <c r="B36" t="n">
-        <v>101.8415546417236</v>
+        <v>465.5498281658104</v>
       </c>
       <c r="C36" t="n">
-        <v>49.79322624206543</v>
+        <v>46.11652414213246</v>
       </c>
       <c r="D36" t="n">
-        <v>44.6943302154541</v>
+        <v>88.07247960882901</v>
       </c>
       <c r="E36" t="n">
-        <v>11</v>
+        <v>48.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005524304207556129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>237.7540720300367</v>
+        <v>306.061577796936</v>
       </c>
       <c r="B37" t="n">
-        <v>461.0961671593104</v>
+        <v>159.8689618110657</v>
       </c>
       <c r="C37" t="n">
-        <v>49.28288617457474</v>
+        <v>38.69837141036987</v>
       </c>
       <c r="D37" t="n">
-        <v>91.87647776363337</v>
+        <v>47.14972019195557</v>
       </c>
       <c r="E37" t="n">
-        <v>36.5</v>
+        <v>8.5</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1836,91 +1836,91 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>310.22265625</v>
+        <v>1790.098761674482</v>
       </c>
       <c r="B38" t="n">
-        <v>160.267578125</v>
+        <v>88.4589920300059</v>
       </c>
       <c r="C38" t="n">
-        <v>31.529296875</v>
+        <v>39.34313166327775</v>
       </c>
       <c r="D38" t="n">
-        <v>53.25390625</v>
+        <v>37.60093117225915</v>
       </c>
       <c r="E38" t="n">
-        <v>-3.5</v>
+        <v>29.5</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02180037492416084</v>
+        <v>0.05826498080556519</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1790.098761674482</v>
+        <v>1838.269980203127</v>
       </c>
       <c r="B39" t="n">
-        <v>88.4589920300059</v>
+        <v>101.380894047441</v>
       </c>
       <c r="C39" t="n">
-        <v>39.34313166327775</v>
+        <v>38.98068415815942</v>
       </c>
       <c r="D39" t="n">
-        <v>37.60093117225915</v>
+        <v>36.50702647748403</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>27.5</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.0616052729704698</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1838.269980203127</v>
+        <v>1126.905750852808</v>
       </c>
       <c r="B40" t="n">
-        <v>101.380894047441</v>
+        <v>15.19948131399178</v>
       </c>
       <c r="C40" t="n">
-        <v>38.98068415815942</v>
+        <v>68.95995335168845</v>
       </c>
       <c r="D40" t="n">
-        <v>36.50702647748403</v>
+        <v>40.76077773333964</v>
       </c>
       <c r="E40" t="n">
-        <v>31.5</v>
+        <v>36</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0.014147339650621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1123.872218318749</v>
+        <v>1884.433570419438</v>
       </c>
       <c r="B41" t="n">
-        <v>9.067216381896287</v>
+        <v>715.8172754673287</v>
       </c>
       <c r="C41" t="n">
-        <v>85.74805803224444</v>
+        <v>32.7070536268875</v>
       </c>
       <c r="D41" t="n">
-        <v>51.75909973494709</v>
+        <v>59.181308462983</v>
       </c>
       <c r="E41" t="n">
-        <v>28.5</v>
+        <v>23</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1928,19 +1928,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1884.433570419438</v>
+        <v>196.5176986604929</v>
       </c>
       <c r="B42" t="n">
-        <v>715.8172754673287</v>
+        <v>181.4337492734194</v>
       </c>
       <c r="C42" t="n">
-        <v>32.7070536268875</v>
+        <v>37.30528934299946</v>
       </c>
       <c r="D42" t="n">
-        <v>59.181308462983</v>
+        <v>54.5693476498127</v>
       </c>
       <c r="E42" t="n">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1951,65 +1951,65 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>194.2831785678864</v>
+        <v>1770.80517578125</v>
       </c>
       <c r="B43" t="n">
-        <v>176.9399883747101</v>
+        <v>133.80712890625</v>
       </c>
       <c r="C43" t="n">
-        <v>39.88462948799133</v>
+        <v>38.75390625</v>
       </c>
       <c r="D43" t="n">
-        <v>57.10956239700317</v>
+        <v>37.40673828125</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04316788742585867</v>
+        <v>0.1726356545465853</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1770.80517578125</v>
+        <v>1.117202788591385</v>
       </c>
       <c r="B44" t="n">
-        <v>133.80712890625</v>
+        <v>283.6517047992675</v>
       </c>
       <c r="C44" t="n">
-        <v>38.75390625</v>
+        <v>40.92001021781471</v>
       </c>
       <c r="D44" t="n">
-        <v>37.40673828125</v>
+        <v>41.59060679748654</v>
       </c>
       <c r="E44" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04200349261087379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.937622308731079</v>
+        <v>1218.328701337249</v>
       </c>
       <c r="B45" t="n">
-        <v>284.2136383941397</v>
+        <v>18.13763825341948</v>
       </c>
       <c r="C45" t="n">
-        <v>40.36008174251765</v>
+        <v>75.02489076213033</v>
       </c>
       <c r="D45" t="n">
-        <v>42.72485437989235</v>
+        <v>39.36602293711667</v>
       </c>
       <c r="E45" t="n">
-        <v>21.5</v>
+        <v>38</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2020,134 +2020,134 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1222.360677370802</v>
+        <v>1685.566764235497</v>
       </c>
       <c r="B46" t="n">
-        <v>15.76628600619734</v>
+        <v>60.34284293651581</v>
       </c>
       <c r="C46" t="n">
-        <v>69.95256168581545</v>
+        <v>51.31470465660095</v>
       </c>
       <c r="D46" t="n">
-        <v>42.22995042987168</v>
+        <v>36.73433482646942</v>
       </c>
       <c r="E46" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.02782152962445596</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1680.133528470993</v>
+        <v>540.5722689628601</v>
       </c>
       <c r="B47" t="n">
-        <v>58.68568587303162</v>
+        <v>801.3271656036377</v>
       </c>
       <c r="C47" t="n">
-        <v>52.6294093132019</v>
+        <v>134.1685822010041</v>
       </c>
       <c r="D47" t="n">
-        <v>37.46866965293884</v>
+        <v>113.4233202934265</v>
       </c>
       <c r="E47" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.007077376819476012</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>540.5722689628601</v>
+        <v>223.5303206899262</v>
       </c>
       <c r="B48" t="n">
-        <v>801.3271656036377</v>
+        <v>228.2570255029132</v>
       </c>
       <c r="C48" t="n">
-        <v>134.1685822010041</v>
+        <v>63.53121651441325</v>
       </c>
       <c r="D48" t="n">
-        <v>113.4233202934265</v>
+        <v>45.25799177208683</v>
       </c>
       <c r="E48" t="n">
-        <v>15.5</v>
+        <v>32.5</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0.003055339997922067</v>
+        <v>0.03357446601653023</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>223.5303206899262</v>
+        <v>875.625</v>
       </c>
       <c r="B49" t="n">
-        <v>228.2570255029132</v>
+        <v>19.8046875</v>
       </c>
       <c r="C49" t="n">
-        <v>63.53121651441325</v>
+        <v>71.421875</v>
       </c>
       <c r="D49" t="n">
-        <v>45.25799177208683</v>
+        <v>48.73828125</v>
       </c>
       <c r="E49" t="n">
-        <v>34.5</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01180080798685709</v>
+        <v>0.3245538035778568</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>875.625</v>
+        <v>1555.271214243025</v>
       </c>
       <c r="B50" t="n">
-        <v>19.8046875</v>
+        <v>42.5837113969028</v>
       </c>
       <c r="C50" t="n">
-        <v>71.421875</v>
+        <v>58.32993412017822</v>
       </c>
       <c r="D50" t="n">
-        <v>48.73828125</v>
+        <v>37.7870090380311</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>16.5</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1478963049562815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1557.446769714355</v>
+        <v>1637.34375</v>
       </c>
       <c r="B51" t="n">
-        <v>43.44094085693359</v>
+        <v>60.390625</v>
       </c>
       <c r="C51" t="n">
-        <v>53.705078125</v>
+        <v>39.578125</v>
       </c>
       <c r="D51" t="n">
-        <v>34.79450988769531</v>
+        <v>36.046875</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2158,42 +2158,42 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1637.34375</v>
+        <v>1473.806396484375</v>
       </c>
       <c r="B52" t="n">
-        <v>60.390625</v>
+        <v>38.948974609375</v>
       </c>
       <c r="C52" t="n">
-        <v>39.578125</v>
+        <v>60.508056640625</v>
       </c>
       <c r="D52" t="n">
-        <v>36.046875</v>
+        <v>40.17138671875</v>
       </c>
       <c r="E52" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.01171978817351883</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1473.806396484375</v>
+        <v>800.375</v>
       </c>
       <c r="B53" t="n">
-        <v>38.948974609375</v>
+        <v>32</v>
       </c>
       <c r="C53" t="n">
-        <v>60.508056640625</v>
+        <v>68.875</v>
       </c>
       <c r="D53" t="n">
-        <v>40.17138671875</v>
+        <v>38.125</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>-9.5</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2204,19 +2204,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>800.375</v>
+        <v>44.74070745044277</v>
       </c>
       <c r="B54" t="n">
-        <v>32</v>
+        <v>271.1559378629871</v>
       </c>
       <c r="C54" t="n">
-        <v>68.875</v>
+        <v>44.1220885451761</v>
       </c>
       <c r="D54" t="n">
-        <v>38.125</v>
+        <v>42.57634795671525</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.5</v>
+        <v>54</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2227,65 +2227,65 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>41.93771701359924</v>
+        <v>1821.807373046875</v>
       </c>
       <c r="B55" t="n">
-        <v>274.721486795017</v>
+        <v>144.459716796875</v>
       </c>
       <c r="C55" t="n">
-        <v>42.07468104130089</v>
+        <v>33.675048828125</v>
       </c>
       <c r="D55" t="n">
-        <v>42.72123070566477</v>
+        <v>34.802490234375</v>
       </c>
       <c r="E55" t="n">
-        <v>42</v>
+        <v>4.5</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01007831715365357</v>
+        <v>0.1204973314653303</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1821.807373046875</v>
+        <v>1387.81779551506</v>
       </c>
       <c r="B56" t="n">
-        <v>144.459716796875</v>
+        <v>26.46469461917877</v>
       </c>
       <c r="C56" t="n">
-        <v>33.675048828125</v>
+        <v>61.73635721206665</v>
       </c>
       <c r="D56" t="n">
-        <v>34.802490234375</v>
+        <v>42.8628910779953</v>
       </c>
       <c r="E56" t="n">
-        <v>4.5</v>
+        <v>20</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06122159812743799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1387.81779551506</v>
+        <v>706.2505487300069</v>
       </c>
       <c r="B57" t="n">
-        <v>26.46469461917877</v>
+        <v>36.80140809348834</v>
       </c>
       <c r="C57" t="n">
-        <v>61.73635721206665</v>
+        <v>71.18766067197129</v>
       </c>
       <c r="D57" t="n">
-        <v>42.8628910779953</v>
+        <v>38.11626187789352</v>
       </c>
       <c r="E57" t="n">
-        <v>20</v>
+        <v>50.5</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2296,19 +2296,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>702.2475981082816</v>
+        <v>1390.08984375</v>
       </c>
       <c r="B58" t="n">
-        <v>34.56755092823914</v>
+        <v>76.16015625</v>
       </c>
       <c r="C58" t="n">
-        <v>76.65811239436607</v>
+        <v>75.494140625</v>
       </c>
       <c r="D58" t="n">
-        <v>43.20865185187449</v>
+        <v>43.65625</v>
       </c>
       <c r="E58" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2319,88 +2319,88 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1390.08984375</v>
+        <v>1865.625</v>
       </c>
       <c r="B59" t="n">
-        <v>76.16015625</v>
+        <v>144.5</v>
       </c>
       <c r="C59" t="n">
-        <v>75.494140625</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
-        <v>43.65625</v>
+        <v>34.5</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>-9.5</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1735327938215414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1865.625</v>
+        <v>1310.01376676932</v>
       </c>
       <c r="B60" t="n">
-        <v>144.5</v>
+        <v>21.9444244839251</v>
       </c>
       <c r="C60" t="n">
-        <v>35</v>
+        <v>70.11000116169453</v>
       </c>
       <c r="D60" t="n">
-        <v>34.5</v>
+        <v>37.12026458978653</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.5</v>
+        <v>24</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1007203027713344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1301.388687133789</v>
+        <v>1154.04833984375</v>
       </c>
       <c r="B61" t="n">
-        <v>18.36268615722656</v>
+        <v>61.18170166015625</v>
       </c>
       <c r="C61" t="n">
-        <v>76.56475830078125</v>
+        <v>85.180908203125</v>
       </c>
       <c r="D61" t="n">
-        <v>42.603759765625</v>
+        <v>47.87985229492188</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>0.1731215668777908</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1154.04833984375</v>
+        <v>437.5</v>
       </c>
       <c r="B62" t="n">
-        <v>61.18170166015625</v>
+        <v>265</v>
       </c>
       <c r="C62" t="n">
-        <v>85.180908203125</v>
+        <v>88.5</v>
       </c>
       <c r="D62" t="n">
-        <v>47.87985229492188</v>
+        <v>53</v>
       </c>
       <c r="E62" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2411,19 +2411,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>437.5</v>
+        <v>456.7507316017291</v>
       </c>
       <c r="B63" t="n">
-        <v>265</v>
+        <v>452.5634964061901</v>
       </c>
       <c r="C63" t="n">
-        <v>88.5</v>
+        <v>52.18025244958699</v>
       </c>
       <c r="D63" t="n">
-        <v>53</v>
+        <v>81.62453023635317</v>
       </c>
       <c r="E63" t="n">
-        <v>-1</v>
+        <v>30.5</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2434,45 +2434,45 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>297</v>
+        <v>488</v>
       </c>
       <c r="B64" t="n">
-        <v>211</v>
+        <v>527</v>
       </c>
       <c r="C64" t="n">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="D64" t="n">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.5</v>
+        <v>-1</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>0.01772579283733269</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>458.9966406822205</v>
+        <v>34.86328125</v>
       </c>
       <c r="B65" t="n">
-        <v>454.0812797546387</v>
+        <v>199.15234375</v>
       </c>
       <c r="C65" t="n">
-        <v>50.31403350830078</v>
+        <v>47.3203125</v>
       </c>
       <c r="D65" t="n">
-        <v>79.07584810256958</v>
+        <v>35.68359375</v>
       </c>
       <c r="E65" t="n">
-        <v>18.5</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2480,65 +2480,65 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>488</v>
+        <v>163.3579224050045</v>
       </c>
       <c r="B66" t="n">
-        <v>527</v>
+        <v>192.9762978851795</v>
       </c>
       <c r="C66" t="n">
-        <v>36</v>
+        <v>30.4921900331974</v>
       </c>
       <c r="D66" t="n">
-        <v>116</v>
+        <v>52.41246965527534</v>
       </c>
       <c r="E66" t="n">
-        <v>-1</v>
+        <v>24.5</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1473096778130339</v>
+        <v>0.2105785392742686</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>34.86328125</v>
+        <v>1581</v>
       </c>
       <c r="B67" t="n">
-        <v>199.15234375</v>
+        <v>109</v>
       </c>
       <c r="C67" t="n">
-        <v>47.3203125</v>
+        <v>29</v>
       </c>
       <c r="D67" t="n">
-        <v>35.68359375</v>
+        <v>34</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.1850501688629688</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>297</v>
+        <v>1427</v>
       </c>
       <c r="B68" t="n">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="C68" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D68" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E68" t="n">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2549,65 +2549,65 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>165.0250854492188</v>
+        <v>615</v>
       </c>
       <c r="B69" t="n">
-        <v>193.4580688476562</v>
+        <v>50</v>
       </c>
       <c r="C69" t="n">
-        <v>32.00518798828125</v>
+        <v>37</v>
       </c>
       <c r="D69" t="n">
-        <v>49.73785400390625</v>
+        <v>38</v>
       </c>
       <c r="E69" t="n">
-        <v>13.5</v>
+        <v>0.5</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03279247654365927</v>
+        <v>0.2755916954142815</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1581</v>
+        <v>377</v>
       </c>
       <c r="B70" t="n">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C70" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D70" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2139612728370172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1427</v>
+        <v>1431.142833709717</v>
       </c>
       <c r="B71" t="n">
-        <v>34</v>
+        <v>77.32021713256836</v>
       </c>
       <c r="C71" t="n">
-        <v>40</v>
+        <v>72.76187324523926</v>
       </c>
       <c r="D71" t="n">
-        <v>36</v>
+        <v>42.89546203613281</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -2618,91 +2618,91 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>329.5</v>
+        <v>564</v>
       </c>
       <c r="B72" t="n">
-        <v>831.75</v>
+        <v>109.125</v>
       </c>
       <c r="C72" t="n">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="D72" t="n">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3289005018859033</v>
+        <v>0.003759949216270326</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1218</v>
+        <v>492.1484375</v>
       </c>
       <c r="B73" t="n">
-        <v>71</v>
+        <v>61.0625</v>
       </c>
       <c r="C73" t="n">
-        <v>75.5</v>
+        <v>69.6015625</v>
       </c>
       <c r="D73" t="n">
-        <v>46</v>
+        <v>35.828125</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1181347150259067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>615</v>
+        <v>1088.61181640625</v>
       </c>
       <c r="B74" t="n">
-        <v>50</v>
+        <v>64.0546875</v>
       </c>
       <c r="C74" t="n">
-        <v>37</v>
+        <v>92.3251953125</v>
       </c>
       <c r="D74" t="n">
-        <v>38</v>
+        <v>43.962890625</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5</v>
+        <v>12</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1172839506172839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>377</v>
+        <v>480.3740234375</v>
       </c>
       <c r="B75" t="n">
-        <v>76</v>
+        <v>128.81396484375</v>
       </c>
       <c r="C75" t="n">
-        <v>67</v>
+        <v>48.751953125</v>
       </c>
       <c r="D75" t="n">
-        <v>35</v>
+        <v>54.4853515625</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2710,162 +2710,116 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1441.28271484375</v>
+        <v>394.4609375</v>
       </c>
       <c r="B76" t="n">
-        <v>80.98779296875</v>
+        <v>140.03515625</v>
       </c>
       <c r="C76" t="n">
-        <v>75.519775390625</v>
+        <v>41.8671875</v>
       </c>
       <c r="D76" t="n">
-        <v>44.619140625</v>
+        <v>60.34765625</v>
       </c>
       <c r="E76" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.06517106100120321</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>211</v>
+        <v>440.48828125</v>
       </c>
       <c r="B77" t="n">
-        <v>276</v>
+        <v>138.41796875</v>
       </c>
       <c r="C77" t="n">
-        <v>66</v>
+        <v>39.3984375</v>
       </c>
       <c r="D77" t="n">
-        <v>47</v>
+        <v>50.78125</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01015406162464986</v>
+        <v>0.09019440775189166</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1893</v>
+        <v>269.4921875</v>
       </c>
       <c r="B78" t="n">
-        <v>68</v>
+        <v>167.015625</v>
       </c>
       <c r="C78" t="n">
-        <v>25</v>
+        <v>35.9140625</v>
       </c>
       <c r="D78" t="n">
-        <v>34</v>
+        <v>47.2890625</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>0.004228671259193012</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>537.5</v>
+        <v>138.75</v>
       </c>
       <c r="B79" t="n">
-        <v>51.5</v>
+        <v>193.125</v>
       </c>
       <c r="C79" t="n">
-        <v>49</v>
+        <v>34.75</v>
       </c>
       <c r="D79" t="n">
-        <v>26.5</v>
+        <v>54.5</v>
       </c>
       <c r="E79" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.1760204081632653</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>272</v>
+        <v>20.5</v>
       </c>
       <c r="B80" t="n">
-        <v>911</v>
+        <v>802.5</v>
       </c>
       <c r="C80" t="n">
-        <v>136</v>
+        <v>55.5</v>
       </c>
       <c r="D80" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01267105930055753</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>475</v>
-      </c>
-      <c r="B81" t="n">
-        <v>649</v>
-      </c>
-      <c r="C81" t="n">
-        <v>70</v>
-      </c>
-      <c r="D81" t="n">
-        <v>112</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>564</v>
-      </c>
-      <c r="B82" t="n">
-        <v>109.125</v>
-      </c>
-      <c r="C82" t="n">
-        <v>50</v>
-      </c>
-      <c r="D82" t="n">
-        <v>63</v>
-      </c>
-      <c r="E82" t="n">
-        <v>4</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataBase.xlsx
+++ b/dataBase.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -406,7 +406,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -472,10 +472,10 @@
         <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1823818516803898</v>
+        <v>0.2056343538379685</v>
       </c>
     </row>
     <row r="5">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1235604606525912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -848,42 +848,42 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>613.75</v>
+        <v>592.375</v>
       </c>
       <c r="B21" t="n">
-        <v>637</v>
+        <v>629.5</v>
       </c>
       <c r="C21" t="n">
-        <v>192.5</v>
+        <v>210.25</v>
       </c>
       <c r="D21" t="n">
-        <v>99.5</v>
+        <v>103.25</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.01380934825617228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>638.75</v>
+        <v>634.875</v>
       </c>
       <c r="B22" t="n">
-        <v>738.75</v>
+        <v>735.875</v>
       </c>
       <c r="C22" t="n">
-        <v>240</v>
+        <v>234.5</v>
       </c>
       <c r="D22" t="n">
-        <v>120.75</v>
+        <v>116.875</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -935,24 +935,24 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0795398680543952</v>
+        <v>0.06121687196715192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="B25" t="n">
-        <v>712.25</v>
+        <v>711.125</v>
       </c>
       <c r="C25" t="n">
-        <v>95.75</v>
+        <v>88.875</v>
       </c>
       <c r="D25" t="n">
-        <v>90.75</v>
+        <v>89.375</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -978,6 +978,52 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1748</v>
+      </c>
+      <c r="B27" t="n">
+        <v>65</v>
+      </c>
+      <c r="C27" t="n">
+        <v>62</v>
+      </c>
+      <c r="D27" t="n">
+        <v>46</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1814</v>
+      </c>
+      <c r="B28" t="n">
+        <v>75</v>
+      </c>
+      <c r="C28" t="n">
+        <v>61</v>
+      </c>
+      <c r="D28" t="n">
+        <v>46</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/dataBase.xlsx
+++ b/dataBase.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -406,27 +406,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>402.0938878562301</v>
+        <v>1092.5</v>
       </c>
       <c r="B2" t="n">
-        <v>503.1386673180386</v>
+        <v>743</v>
       </c>
       <c r="C2" t="n">
-        <v>131.2845915043727</v>
+        <v>206</v>
       </c>
       <c r="D2" t="n">
-        <v>67.13482069037855</v>
+        <v>102</v>
       </c>
       <c r="E2" t="n">
-        <v>29.5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -434,22 +434,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>406.7960318699479</v>
+        <v>1107.5</v>
       </c>
       <c r="B3" t="n">
-        <v>368.0866810530424</v>
+        <v>385</v>
       </c>
       <c r="C3" t="n">
-        <v>111.0925447046757</v>
+        <v>91.5</v>
       </c>
       <c r="D3" t="n">
-        <v>104.5060890614986</v>
+        <v>176</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -457,114 +457,114 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>712.2643702961504</v>
+        <v>986.5</v>
       </c>
       <c r="B4" t="n">
-        <v>583.2971863076091</v>
+        <v>387</v>
       </c>
       <c r="C4" t="n">
-        <v>129.377631187439</v>
+        <v>101.5</v>
       </c>
       <c r="D4" t="n">
-        <v>79.74414410814643</v>
+        <v>176</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2056343538379685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>503.3422945358325</v>
+        <v>571</v>
       </c>
       <c r="B5" t="n">
-        <v>15.13445986574516</v>
+        <v>614.5</v>
       </c>
       <c r="C5" t="n">
-        <v>67.14996699197218</v>
+        <v>231.5</v>
       </c>
       <c r="D5" t="n">
-        <v>62.62602290976793</v>
+        <v>115</v>
       </c>
       <c r="E5" t="n">
-        <v>32.5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.004805273479613525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>720.204949896317</v>
+        <v>726.5</v>
       </c>
       <c r="B6" t="n">
-        <v>355.3586317328736</v>
+        <v>407</v>
       </c>
       <c r="C6" t="n">
-        <v>53.02322956128046</v>
+        <v>133.5</v>
       </c>
       <c r="D6" t="n">
-        <v>112.5014558858238</v>
+        <v>149</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1214903526280772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>407.3019384106155</v>
+        <v>627</v>
       </c>
       <c r="B7" t="n">
-        <v>570.2508016270585</v>
+        <v>473</v>
       </c>
       <c r="C7" t="n">
-        <v>142.2380564832129</v>
+        <v>155</v>
       </c>
       <c r="D7" t="n">
-        <v>76.25271685770713</v>
+        <v>143</v>
       </c>
       <c r="E7" t="n">
-        <v>32.5</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.1304354211291263</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>649.1503607681952</v>
+        <v>676.5</v>
       </c>
       <c r="B8" t="n">
-        <v>352.3612338043749</v>
+        <v>748</v>
       </c>
       <c r="C8" t="n">
-        <v>53.37879841215909</v>
+        <v>232.5</v>
       </c>
       <c r="D8" t="n">
-        <v>119.9846409023739</v>
+        <v>104</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -572,458 +572,24 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>571.7984482091852</v>
+        <v>1748.5</v>
       </c>
       <c r="B9" t="n">
-        <v>360.4176237541251</v>
+        <v>708.5</v>
       </c>
       <c r="C9" t="n">
-        <v>56.84915428748354</v>
+        <v>105</v>
       </c>
       <c r="D9" t="n">
-        <v>111.5943341325037</v>
+        <v>91</v>
       </c>
       <c r="E9" t="n">
-        <v>31.5</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>567.1728515625</v>
-      </c>
-      <c r="B10" t="n">
-        <v>24.716796875</v>
-      </c>
-      <c r="C10" t="n">
-        <v>51.2685546875</v>
-      </c>
-      <c r="D10" t="n">
-        <v>48.77734375</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>409.8901716689579</v>
-      </c>
-      <c r="B11" t="n">
-        <v>19.11059977905825</v>
-      </c>
-      <c r="C11" t="n">
-        <v>69.12087293807417</v>
-      </c>
-      <c r="D11" t="n">
-        <v>68.9425098693464</v>
-      </c>
-      <c r="E11" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>378.7384715825319</v>
-      </c>
-      <c r="B12" t="n">
-        <v>46.27682754397392</v>
-      </c>
-      <c r="C12" t="n">
-        <v>45.43010088801384</v>
-      </c>
-      <c r="D12" t="n">
-        <v>47.74448674917221</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1153.128231532872</v>
-      </c>
-      <c r="B13" t="n">
-        <v>540.1477833762765</v>
-      </c>
-      <c r="C13" t="n">
-        <v>74.27141867205501</v>
-      </c>
-      <c r="D13" t="n">
-        <v>64.4721601838246</v>
-      </c>
-      <c r="E13" t="n">
-        <v>30</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>613.9501953125</v>
-      </c>
-      <c r="B14" t="n">
-        <v>26.1767578125</v>
-      </c>
-      <c r="C14" t="n">
-        <v>53.44970703125</v>
-      </c>
-      <c r="D14" t="n">
-        <v>45.19677734375</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>659.8125</v>
-      </c>
-      <c r="B15" t="n">
-        <v>23.91015625</v>
-      </c>
-      <c r="C15" t="n">
-        <v>46.0078125</v>
-      </c>
-      <c r="D15" t="n">
-        <v>42.19140625</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>696.5696500241756</v>
-      </c>
-      <c r="B16" t="n">
-        <v>22.91747459769249</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50.00608071684837</v>
-      </c>
-      <c r="D16" t="n">
-        <v>42.69496527314186</v>
-      </c>
-      <c r="E16" t="n">
-        <v>22</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>339.1393728256226</v>
-      </c>
-      <c r="B17" t="n">
-        <v>61.26700496673584</v>
-      </c>
-      <c r="C17" t="n">
-        <v>45.68721961975098</v>
-      </c>
-      <c r="D17" t="n">
-        <v>40.89814186096191</v>
-      </c>
-      <c r="E17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>475.2666015625</v>
-      </c>
-      <c r="B18" t="n">
-        <v>34.68310546875</v>
-      </c>
-      <c r="C18" t="n">
-        <v>47.76611328125</v>
-      </c>
-      <c r="D18" t="n">
-        <v>47.888671875</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>573</v>
-      </c>
-      <c r="B19" t="n">
-        <v>548</v>
-      </c>
-      <c r="C19" t="n">
-        <v>142</v>
-      </c>
-      <c r="D19" t="n">
-        <v>132</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1131.75</v>
-      </c>
-      <c r="B20" t="n">
-        <v>745</v>
-      </c>
-      <c r="C20" t="n">
-        <v>199</v>
-      </c>
-      <c r="D20" t="n">
-        <v>111</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>592.375</v>
-      </c>
-      <c r="B21" t="n">
-        <v>629.5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>210.25</v>
-      </c>
-      <c r="D21" t="n">
-        <v>103.25</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.01380934825617228</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>634.875</v>
-      </c>
-      <c r="B22" t="n">
-        <v>735.875</v>
-      </c>
-      <c r="C22" t="n">
-        <v>234.5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>116.875</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>631</v>
-      </c>
-      <c r="B23" t="n">
-        <v>457.5</v>
-      </c>
-      <c r="C23" t="n">
-        <v>152</v>
-      </c>
-      <c r="D23" t="n">
-        <v>162.5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>732</v>
-      </c>
-      <c r="B24" t="n">
-        <v>401.5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>160.5</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.06121687196715192</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1742</v>
-      </c>
-      <c r="B25" t="n">
-        <v>711.125</v>
-      </c>
-      <c r="C25" t="n">
-        <v>88.875</v>
-      </c>
-      <c r="D25" t="n">
-        <v>89.375</v>
-      </c>
-      <c r="E25" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>848</v>
-      </c>
-      <c r="B26" t="n">
-        <v>522</v>
-      </c>
-      <c r="C26" t="n">
-        <v>142</v>
-      </c>
-      <c r="D26" t="n">
-        <v>50</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1748</v>
-      </c>
-      <c r="B27" t="n">
-        <v>65</v>
-      </c>
-      <c r="C27" t="n">
-        <v>62</v>
-      </c>
-      <c r="D27" t="n">
-        <v>46</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1814</v>
-      </c>
-      <c r="B28" t="n">
-        <v>75</v>
-      </c>
-      <c r="C28" t="n">
-        <v>61</v>
-      </c>
-      <c r="D28" t="n">
-        <v>46</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1039,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD25"/>
@@ -1049,50 +615,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>147.6863583959016</v>
+        <v>1173.125</v>
       </c>
       <c r="B2" t="n">
-        <v>823.7052087110637</v>
+        <v>840.75</v>
       </c>
       <c r="C2" t="n">
-        <v>96.70962573809418</v>
+        <v>156.75</v>
       </c>
       <c r="D2" t="n">
-        <v>66.1001092507444</v>
+        <v>75.625</v>
       </c>
       <c r="E2" t="n">
-        <v>43.5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1662674063699013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>259.7292680648567</v>
+        <v>1659.75</v>
       </c>
       <c r="B3" t="n">
-        <v>847.9578474563151</v>
+        <v>764.25</v>
       </c>
       <c r="C3" t="n">
-        <v>111.2720225262475</v>
+        <v>104.5</v>
       </c>
       <c r="D3" t="n">
-        <v>64.80852055416224</v>
+        <v>69.5</v>
       </c>
       <c r="E3" t="n">
-        <v>42.5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1100,19 +666,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>375.9873331825365</v>
+        <v>640.5</v>
       </c>
       <c r="B4" t="n">
-        <v>756.3974708397582</v>
+        <v>865.5</v>
       </c>
       <c r="C4" t="n">
-        <v>84.42732635175344</v>
+        <v>151.5</v>
       </c>
       <c r="D4" t="n">
-        <v>112.4159864657559</v>
+        <v>73.5</v>
       </c>
       <c r="E4" t="n">
-        <v>30.5</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1123,19 +689,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1389.841215121338</v>
+        <v>1005.125</v>
       </c>
       <c r="B5" t="n">
-        <v>814.9934052805404</v>
+        <v>856.125</v>
       </c>
       <c r="C5" t="n">
-        <v>125.0985704063322</v>
+        <v>151.875</v>
       </c>
       <c r="D5" t="n">
-        <v>69.21477795716039</v>
+        <v>68</v>
       </c>
       <c r="E5" t="n">
-        <v>51.5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1146,19 +712,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1070.027739460551</v>
+        <v>1507</v>
       </c>
       <c r="B6" t="n">
-        <v>856.5863363014796</v>
+        <v>793.125</v>
       </c>
       <c r="C6" t="n">
-        <v>149.9049363799713</v>
+        <v>144.875</v>
       </c>
       <c r="D6" t="n">
-        <v>86.1303219973488</v>
+        <v>79.125</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1169,45 +735,45 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>887.7918483654503</v>
+        <v>834</v>
       </c>
       <c r="B7" t="n">
-        <v>858.5458402913646</v>
+        <v>866.875</v>
       </c>
       <c r="C7" t="n">
-        <v>157.6246281540371</v>
+        <v>153.125</v>
       </c>
       <c r="D7" t="n">
-        <v>86.21144157199888</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06786864871233229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1208.92000272819</v>
+        <v>1773.5</v>
       </c>
       <c r="B8" t="n">
-        <v>829.1693938223543</v>
+        <v>743.5</v>
       </c>
       <c r="C8" t="n">
-        <v>175.265271465123</v>
+        <v>89</v>
       </c>
       <c r="D8" t="n">
-        <v>88.76137074748786</v>
+        <v>61.5</v>
       </c>
       <c r="E8" t="n">
-        <v>48</v>
+        <v>1.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1215,19 +781,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>59.11249134403016</v>
+        <v>1352.75</v>
       </c>
       <c r="B9" t="n">
-        <v>813.9945832451841</v>
+        <v>815.125</v>
       </c>
       <c r="C9" t="n">
-        <v>79.43136795472894</v>
+        <v>137.25</v>
       </c>
       <c r="D9" t="n">
-        <v>57.0029214263342</v>
+        <v>74.625</v>
       </c>
       <c r="E9" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1238,45 +804,45 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>721.8964800337851</v>
+        <v>161</v>
       </c>
       <c r="B10" t="n">
-        <v>870.5802904856732</v>
+        <v>248.5</v>
       </c>
       <c r="C10" t="n">
-        <v>151.3220436766003</v>
+        <v>57.125</v>
       </c>
       <c r="D10" t="n">
-        <v>79.53285225039349</v>
+        <v>40.25</v>
       </c>
       <c r="E10" t="n">
-        <v>42.5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1126768490284598</v>
+        <v>0.009763959410720014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>446.6544642330129</v>
+        <v>89.875</v>
       </c>
       <c r="B11" t="n">
-        <v>538.0861048492236</v>
+        <v>819.5</v>
       </c>
       <c r="C11" t="n">
-        <v>52.95555881122903</v>
+        <v>78.375</v>
       </c>
       <c r="D11" t="n">
-        <v>98.18077617316652</v>
+        <v>57.75</v>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1284,19 +850,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>185.0567434127522</v>
+        <v>314.125</v>
       </c>
       <c r="B12" t="n">
-        <v>483.2441672216751</v>
+        <v>213</v>
       </c>
       <c r="C12" t="n">
-        <v>37.88230674748631</v>
+        <v>74</v>
       </c>
       <c r="D12" t="n">
-        <v>79.36816632693129</v>
+        <v>45.5</v>
       </c>
       <c r="E12" t="n">
-        <v>55.5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1307,42 +873,42 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.7156680815207</v>
+        <v>233.625</v>
       </c>
       <c r="B13" t="n">
-        <v>500.4432191149718</v>
+        <v>228.125</v>
       </c>
       <c r="C13" t="n">
-        <v>32.25304721441887</v>
+        <v>58.125</v>
       </c>
       <c r="D13" t="n">
-        <v>73.18083483340963</v>
+        <v>42.375</v>
       </c>
       <c r="E13" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07229656482301486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>44.93027584058794</v>
+        <v>443.75</v>
       </c>
       <c r="B14" t="n">
-        <v>495.6454010252658</v>
+        <v>514.875</v>
       </c>
       <c r="C14" t="n">
-        <v>34.01682100341029</v>
+        <v>60.875</v>
       </c>
       <c r="D14" t="n">
-        <v>75.84946455418907</v>
+        <v>109.125</v>
       </c>
       <c r="E14" t="n">
-        <v>61.5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1353,19 +919,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>126.99435089795</v>
+        <v>816.75</v>
       </c>
       <c r="B15" t="n">
-        <v>476.6406961268195</v>
+        <v>27.5</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99768181816356</v>
+        <v>80.375</v>
       </c>
       <c r="D15" t="n">
-        <v>86.98508388249297</v>
+        <v>38.625</v>
       </c>
       <c r="E15" t="n">
-        <v>52.5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1376,19 +942,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1530.816390529733</v>
+        <v>46.875</v>
       </c>
       <c r="B16" t="n">
-        <v>786.5014941917617</v>
+        <v>281</v>
       </c>
       <c r="C16" t="n">
-        <v>114.4625106776517</v>
+        <v>47.125</v>
       </c>
       <c r="D16" t="n">
-        <v>75.70839824648692</v>
+        <v>35.625</v>
       </c>
       <c r="E16" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1399,42 +965,42 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>106.875</v>
       </c>
       <c r="B17" t="n">
-        <v>502.525301836663</v>
+        <v>261.75</v>
       </c>
       <c r="C17" t="n">
-        <v>14.75791212951282</v>
+        <v>47</v>
       </c>
       <c r="D17" t="n">
-        <v>71.99826226289022</v>
+        <v>38.875</v>
       </c>
       <c r="E17" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0557349091837658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>87.54805651757562</v>
+        <v>184.5</v>
       </c>
       <c r="B18" t="n">
-        <v>493.7447048514235</v>
+        <v>484.75</v>
       </c>
       <c r="C18" t="n">
-        <v>36.16360198560304</v>
+        <v>36.75</v>
       </c>
       <c r="D18" t="n">
-        <v>73.93914450403136</v>
+        <v>72.875</v>
       </c>
       <c r="E18" t="n">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1445,19 +1011,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>317.8123541385198</v>
+        <v>574</v>
       </c>
       <c r="B19" t="n">
-        <v>468.082059935507</v>
+        <v>113</v>
       </c>
       <c r="C19" t="n">
-        <v>47.52455997224342</v>
+        <v>38.5</v>
       </c>
       <c r="D19" t="n">
-        <v>88.61069744410088</v>
+        <v>49.375</v>
       </c>
       <c r="E19" t="n">
-        <v>36.5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1468,19 +1034,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1658.127105175555</v>
+        <v>127.5</v>
       </c>
       <c r="B20" t="n">
-        <v>764.0513220373556</v>
+        <v>485.625</v>
       </c>
       <c r="C20" t="n">
-        <v>101.7695855321879</v>
+        <v>40.5</v>
       </c>
       <c r="D20" t="n">
-        <v>67.62936833441098</v>
+        <v>81.5</v>
       </c>
       <c r="E20" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1491,19 +1057,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1769.006493834583</v>
+        <v>1474.875</v>
       </c>
       <c r="B21" t="n">
-        <v>745.1052144315975</v>
+        <v>29.875</v>
       </c>
       <c r="C21" t="n">
-        <v>82.35452856667375</v>
+        <v>71.875</v>
       </c>
       <c r="D21" t="n">
-        <v>60.06724422492915</v>
+        <v>41.625</v>
       </c>
       <c r="E21" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1514,88 +1080,88 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1520.573364257812</v>
+        <v>1682.125</v>
       </c>
       <c r="B22" t="n">
-        <v>101.6162109375</v>
+        <v>59.5</v>
       </c>
       <c r="C22" t="n">
-        <v>54.3433837890625</v>
+        <v>56.75</v>
       </c>
       <c r="D22" t="n">
-        <v>38.32275390625</v>
+        <v>37.125</v>
       </c>
       <c r="E22" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.00607326628269386</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>591.9785055520618</v>
+        <v>1835.375</v>
       </c>
       <c r="B23" t="n">
-        <v>59.10833261477287</v>
+        <v>137.25</v>
       </c>
       <c r="C23" t="n">
-        <v>38.98783554671597</v>
+        <v>50.875</v>
       </c>
       <c r="D23" t="n">
-        <v>51.18842360093497</v>
+        <v>35.875</v>
       </c>
       <c r="E23" t="n">
-        <v>46.5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03552238551396045</v>
+        <v>0.004876514795892789</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>300.766300573945</v>
+        <v>0.625</v>
       </c>
       <c r="B24" t="n">
-        <v>211.3750518113375</v>
+        <v>292.375</v>
       </c>
       <c r="C24" t="n">
-        <v>69.92647770047188</v>
+        <v>34.75</v>
       </c>
       <c r="D24" t="n">
-        <v>47.40850095450878</v>
+        <v>36.75</v>
       </c>
       <c r="E24" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002705768207657078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>641.8603666817237</v>
+        <v>1386.75</v>
       </c>
       <c r="B25" t="n">
-        <v>45.50840899380663</v>
+        <v>20.75</v>
       </c>
       <c r="C25" t="n">
-        <v>40.70337495732198</v>
+        <v>68.875</v>
       </c>
       <c r="D25" t="n">
-        <v>54.4300213435248</v>
+        <v>40.5</v>
       </c>
       <c r="E25" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1606,22 +1172,22 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>359.3408203125</v>
+        <v>1679</v>
       </c>
       <c r="B26" t="n">
-        <v>150.9267578125</v>
+        <v>110</v>
       </c>
       <c r="C26" t="n">
-        <v>39.73828125</v>
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>50.3427734375</v>
+        <v>39.5</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1629,22 +1195,22 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>91.80815227214347</v>
+        <v>26.5</v>
       </c>
       <c r="B27" t="n">
-        <v>260.2363360870568</v>
+        <v>808.5</v>
       </c>
       <c r="C27" t="n">
-        <v>53.290631628512</v>
+        <v>47.5</v>
       </c>
       <c r="D27" t="n">
-        <v>41.94818145791305</v>
+        <v>50.5</v>
       </c>
       <c r="E27" t="n">
-        <v>57</v>
+        <v>1.5</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1652,19 +1218,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1021.300244603268</v>
+        <v>44.75</v>
       </c>
       <c r="B28" t="n">
-        <v>10.32569615878492</v>
+        <v>498.5</v>
       </c>
       <c r="C28" t="n">
-        <v>85.21395433327598</v>
+        <v>34.375</v>
       </c>
       <c r="D28" t="n">
-        <v>47.19947804990443</v>
+        <v>74.875</v>
       </c>
       <c r="E28" t="n">
-        <v>38.5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1675,203 +1241,203 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>153.0834519668783</v>
+        <v>423</v>
       </c>
       <c r="B29" t="n">
-        <v>246.004431081623</v>
+        <v>135.25</v>
       </c>
       <c r="C29" t="n">
-        <v>53.85515834944156</v>
+        <v>40.25</v>
       </c>
       <c r="D29" t="n">
-        <v>38.70597277580956</v>
+        <v>58.75</v>
       </c>
       <c r="E29" t="n">
-        <v>52.5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005266941089055781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>958.280936062336</v>
+        <v>85.25</v>
       </c>
       <c r="B30" t="n">
-        <v>20.87750843167305</v>
+        <v>495</v>
       </c>
       <c r="C30" t="n">
-        <v>69.69882847368717</v>
+        <v>36.75</v>
       </c>
       <c r="D30" t="n">
-        <v>47.87495049834251</v>
+        <v>75.5</v>
       </c>
       <c r="E30" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03561258711364563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1654.433403015137</v>
+        <v>1556.25</v>
       </c>
       <c r="B31" t="n">
-        <v>113.3260345458984</v>
+        <v>43</v>
       </c>
       <c r="C31" t="n">
-        <v>48.92171478271484</v>
+        <v>58.625</v>
       </c>
       <c r="D31" t="n">
-        <v>39.76600646972656</v>
+        <v>37.625</v>
       </c>
       <c r="E31" t="n">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1038228228343384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>231.9475746154785</v>
+        <v>593.75</v>
       </c>
       <c r="B32" t="n">
-        <v>178.6525192260742</v>
+        <v>58.75</v>
       </c>
       <c r="C32" t="n">
-        <v>37.51202774047852</v>
+        <v>37.875</v>
       </c>
       <c r="D32" t="n">
-        <v>50.44111251831055</v>
+        <v>52.5</v>
       </c>
       <c r="E32" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08234459715666002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1712.565870560706</v>
+        <v>1789.375</v>
       </c>
       <c r="B33" t="n">
-        <v>122.9020933955908</v>
+        <v>127.625</v>
       </c>
       <c r="C33" t="n">
-        <v>46.19511089473963</v>
+        <v>46</v>
       </c>
       <c r="D33" t="n">
-        <v>39.12507434934378</v>
+        <v>35.625</v>
       </c>
       <c r="E33" t="n">
-        <v>22.5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1735203507416192</v>
+        <v>0.01876767503642129</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1739.815908975899</v>
+        <v>296.375</v>
       </c>
       <c r="B34" t="n">
-        <v>80.24159808270633</v>
+        <v>162.375</v>
       </c>
       <c r="C34" t="n">
-        <v>40.73570198565722</v>
+        <v>40.375</v>
       </c>
       <c r="D34" t="n">
-        <v>34.30202981643379</v>
+        <v>49.375</v>
       </c>
       <c r="E34" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.006620165759444966</v>
+        <v>0.01463836643520532</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1595.153747558594</v>
+        <v>1733.125</v>
       </c>
       <c r="B35" t="n">
-        <v>101.8415546417236</v>
+        <v>116.375</v>
       </c>
       <c r="C35" t="n">
-        <v>49.79322624206543</v>
+        <v>57</v>
       </c>
       <c r="D35" t="n">
-        <v>44.6943302154541</v>
+        <v>38.375</v>
       </c>
       <c r="E35" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01183119416789782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>237.3729868339917</v>
+        <v>11.375</v>
       </c>
       <c r="B36" t="n">
-        <v>465.5498281658104</v>
+        <v>503.5</v>
       </c>
       <c r="C36" t="n">
-        <v>46.11652414213246</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
-        <v>88.07247960882901</v>
+        <v>71.375</v>
       </c>
       <c r="E36" t="n">
-        <v>48.5</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.01078044336471303</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>306.061577796936</v>
+        <v>374.25</v>
       </c>
       <c r="B37" t="n">
-        <v>159.8689618110657</v>
+        <v>146.75</v>
       </c>
       <c r="C37" t="n">
-        <v>38.69837141036987</v>
+        <v>42.75</v>
       </c>
       <c r="D37" t="n">
-        <v>47.14972019195557</v>
+        <v>59.5</v>
       </c>
       <c r="E37" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1882,91 +1448,91 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1790.098761674482</v>
+        <v>1410.375</v>
       </c>
       <c r="B38" t="n">
-        <v>88.4589920300059</v>
+        <v>77.125</v>
       </c>
       <c r="C38" t="n">
-        <v>39.34313166327775</v>
+        <v>77.875</v>
       </c>
       <c r="D38" t="n">
-        <v>37.60093117225915</v>
+        <v>39.875</v>
       </c>
       <c r="E38" t="n">
-        <v>29.5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05826498080556519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1838.269980203127</v>
+        <v>1744</v>
       </c>
       <c r="B39" t="n">
-        <v>101.380894047441</v>
+        <v>73</v>
       </c>
       <c r="C39" t="n">
-        <v>38.98068415815942</v>
+        <v>54</v>
       </c>
       <c r="D39" t="n">
-        <v>36.50702647748403</v>
+        <v>33.5</v>
       </c>
       <c r="E39" t="n">
-        <v>27.5</v>
+        <v>1.5</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0616052729704698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1126.905750852808</v>
+        <v>463</v>
       </c>
       <c r="B40" t="n">
-        <v>15.19948131399178</v>
+        <v>117</v>
       </c>
       <c r="C40" t="n">
-        <v>68.95995335168845</v>
+        <v>44</v>
       </c>
       <c r="D40" t="n">
-        <v>40.76077773333964</v>
+        <v>67.5</v>
       </c>
       <c r="E40" t="n">
-        <v>36</v>
+        <v>1.5</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.009081546671659956</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1884.433570419438</v>
+        <v>1622.25</v>
       </c>
       <c r="B41" t="n">
-        <v>715.8172754673287</v>
+        <v>50.25</v>
       </c>
       <c r="C41" t="n">
-        <v>32.7070536268875</v>
+        <v>59.75</v>
       </c>
       <c r="D41" t="n">
-        <v>59.181308462983</v>
+        <v>41.25</v>
       </c>
       <c r="E41" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1974,19 +1540,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>196.5176986604929</v>
+        <v>1800.125</v>
       </c>
       <c r="B42" t="n">
-        <v>181.4337492734194</v>
+        <v>81.625</v>
       </c>
       <c r="C42" t="n">
-        <v>37.30528934299946</v>
+        <v>47.375</v>
       </c>
       <c r="D42" t="n">
-        <v>54.5693476498127</v>
+        <v>38.375</v>
       </c>
       <c r="E42" t="n">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1997,42 +1563,42 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1770.80517578125</v>
+        <v>641</v>
       </c>
       <c r="B43" t="n">
-        <v>133.80712890625</v>
+        <v>46.375</v>
       </c>
       <c r="C43" t="n">
-        <v>38.75390625</v>
+        <v>38.625</v>
       </c>
       <c r="D43" t="n">
-        <v>37.40673828125</v>
+        <v>53.625</v>
       </c>
       <c r="E43" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1726356545465853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.117202788591385</v>
+        <v>1534</v>
       </c>
       <c r="B44" t="n">
-        <v>283.6517047992675</v>
+        <v>96.5</v>
       </c>
       <c r="C44" t="n">
-        <v>40.92001021781471</v>
+        <v>72.25</v>
       </c>
       <c r="D44" t="n">
-        <v>41.59060679748654</v>
+        <v>40</v>
       </c>
       <c r="E44" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2043,134 +1609,134 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1218.328701337249</v>
+        <v>339.5</v>
       </c>
       <c r="B45" t="n">
-        <v>18.13763825341948</v>
+        <v>152.5</v>
       </c>
       <c r="C45" t="n">
-        <v>75.02489076213033</v>
+        <v>39</v>
       </c>
       <c r="D45" t="n">
-        <v>39.36602293711667</v>
+        <v>53.5</v>
       </c>
       <c r="E45" t="n">
-        <v>38</v>
+        <v>1.5</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.05514516406115787</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1685.566764235497</v>
+        <v>193.375</v>
       </c>
       <c r="B46" t="n">
-        <v>60.34284293651581</v>
+        <v>843.625</v>
       </c>
       <c r="C46" t="n">
-        <v>51.31470465660095</v>
+        <v>99.5</v>
       </c>
       <c r="D46" t="n">
-        <v>36.73433482646942</v>
+        <v>61.25</v>
       </c>
       <c r="E46" t="n">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02782152962445596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>540.5722689628601</v>
+        <v>253</v>
       </c>
       <c r="B47" t="n">
-        <v>801.3271656036377</v>
+        <v>165.5</v>
       </c>
       <c r="C47" t="n">
-        <v>134.1685822010041</v>
+        <v>39.5</v>
       </c>
       <c r="D47" t="n">
-        <v>113.4233202934265</v>
+        <v>55.5</v>
       </c>
       <c r="E47" t="n">
-        <v>11.5</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.007077376819476012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>223.5303206899262</v>
+        <v>1219.125</v>
       </c>
       <c r="B48" t="n">
-        <v>228.2570255029132</v>
+        <v>19.25</v>
       </c>
       <c r="C48" t="n">
-        <v>63.53121651441325</v>
+        <v>71.5</v>
       </c>
       <c r="D48" t="n">
-        <v>45.25799177208683</v>
+        <v>38.375</v>
       </c>
       <c r="E48" t="n">
-        <v>32.5</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03357446601653023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>875.625</v>
+        <v>683.5</v>
       </c>
       <c r="B49" t="n">
-        <v>19.8046875</v>
+        <v>40.5</v>
       </c>
       <c r="C49" t="n">
-        <v>71.421875</v>
+        <v>38.875</v>
       </c>
       <c r="D49" t="n">
-        <v>48.73828125</v>
+        <v>56.25</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3245538035778568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1555.271214243025</v>
+        <v>935.5</v>
       </c>
       <c r="B50" t="n">
-        <v>42.5837113969028</v>
+        <v>18.5</v>
       </c>
       <c r="C50" t="n">
-        <v>58.32993412017822</v>
+        <v>79</v>
       </c>
       <c r="D50" t="n">
-        <v>37.7870090380311</v>
+        <v>37.5</v>
       </c>
       <c r="E50" t="n">
-        <v>16.5</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2181,19 +1747,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1637.34375</v>
+        <v>190.75</v>
       </c>
       <c r="B51" t="n">
-        <v>60.390625</v>
+        <v>183.375</v>
       </c>
       <c r="C51" t="n">
-        <v>39.578125</v>
+        <v>39.375</v>
       </c>
       <c r="D51" t="n">
-        <v>36.046875</v>
+        <v>52.125</v>
       </c>
       <c r="E51" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2204,45 +1770,45 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1473.806396484375</v>
+        <v>218</v>
       </c>
       <c r="B52" t="n">
-        <v>38.948974609375</v>
+        <v>175</v>
       </c>
       <c r="C52" t="n">
-        <v>60.508056640625</v>
+        <v>35</v>
       </c>
       <c r="D52" t="n">
-        <v>40.17138671875</v>
+        <v>53.5</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01171978817351883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>800.375</v>
+        <v>1611.5</v>
       </c>
       <c r="B53" t="n">
-        <v>32</v>
+        <v>95.5</v>
       </c>
       <c r="C53" t="n">
-        <v>68.875</v>
+        <v>61.5</v>
       </c>
       <c r="D53" t="n">
-        <v>38.125</v>
+        <v>43</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.5</v>
+        <v>1.5</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2250,19 +1816,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>44.74070745044277</v>
+        <v>408</v>
       </c>
       <c r="B54" t="n">
-        <v>271.1559378629871</v>
+        <v>720.75</v>
       </c>
       <c r="C54" t="n">
-        <v>44.1220885451761</v>
+        <v>64</v>
       </c>
       <c r="D54" t="n">
-        <v>42.57634795671525</v>
+        <v>119.5</v>
       </c>
       <c r="E54" t="n">
-        <v>54</v>
+        <v>2.5</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2273,42 +1839,42 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1821.807373046875</v>
+        <v>1307.25</v>
       </c>
       <c r="B55" t="n">
-        <v>144.459716796875</v>
+        <v>19</v>
       </c>
       <c r="C55" t="n">
-        <v>33.675048828125</v>
+        <v>66</v>
       </c>
       <c r="D55" t="n">
-        <v>34.802490234375</v>
+        <v>38.5</v>
       </c>
       <c r="E55" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1204973314653303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1387.81779551506</v>
+        <v>1122.25</v>
       </c>
       <c r="B56" t="n">
-        <v>26.46469461917877</v>
+        <v>14.5</v>
       </c>
       <c r="C56" t="n">
-        <v>61.73635721206665</v>
+        <v>83</v>
       </c>
       <c r="D56" t="n">
-        <v>42.8628910779953</v>
+        <v>43.75</v>
       </c>
       <c r="E56" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -2319,19 +1885,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>706.2505487300069</v>
+        <v>248</v>
       </c>
       <c r="B57" t="n">
-        <v>36.80140809348834</v>
+        <v>476</v>
       </c>
       <c r="C57" t="n">
-        <v>71.18766067197129</v>
+        <v>48</v>
       </c>
       <c r="D57" t="n">
-        <v>38.11626187789352</v>
+        <v>83</v>
       </c>
       <c r="E57" t="n">
-        <v>50.5</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2342,19 +1908,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1390.08984375</v>
+        <v>1023</v>
       </c>
       <c r="B58" t="n">
-        <v>76.16015625</v>
+        <v>14.5</v>
       </c>
       <c r="C58" t="n">
-        <v>75.494140625</v>
+        <v>76.5</v>
       </c>
       <c r="D58" t="n">
-        <v>43.65625</v>
+        <v>42.5</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2365,19 +1931,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1865.625</v>
+        <v>316</v>
       </c>
       <c r="B59" t="n">
-        <v>144.5</v>
+        <v>463.5</v>
       </c>
       <c r="C59" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D59" t="n">
-        <v>34.5</v>
+        <v>94</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.5</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2388,19 +1954,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1310.01376676932</v>
+        <v>378</v>
       </c>
       <c r="B60" t="n">
-        <v>21.9444244839251</v>
+        <v>76.5</v>
       </c>
       <c r="C60" t="n">
-        <v>70.11000116169453</v>
+        <v>67.5</v>
       </c>
       <c r="D60" t="n">
-        <v>37.12026458978653</v>
+        <v>36.5</v>
       </c>
       <c r="E60" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2411,42 +1977,42 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1154.04833984375</v>
+        <v>494</v>
       </c>
       <c r="B61" t="n">
-        <v>61.18170166015625</v>
+        <v>63.5</v>
       </c>
       <c r="C61" t="n">
-        <v>85.180908203125</v>
+        <v>70</v>
       </c>
       <c r="D61" t="n">
-        <v>47.87985229492188</v>
+        <v>31.5</v>
       </c>
       <c r="E61" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1731215668777908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>437.5</v>
+        <v>727</v>
       </c>
       <c r="B62" t="n">
-        <v>265</v>
+        <v>33.5</v>
       </c>
       <c r="C62" t="n">
-        <v>88.5</v>
+        <v>86.5</v>
       </c>
       <c r="D62" t="n">
-        <v>53</v>
+        <v>39.5</v>
       </c>
       <c r="E62" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2457,416 +2023,25 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>456.7507316017291</v>
+        <v>133</v>
       </c>
       <c r="B63" t="n">
-        <v>452.5634964061901</v>
+        <v>203.5</v>
       </c>
       <c r="C63" t="n">
-        <v>52.18025244958699</v>
+        <v>34</v>
       </c>
       <c r="D63" t="n">
-        <v>81.62453023635317</v>
+        <v>51.5</v>
       </c>
       <c r="E63" t="n">
-        <v>30.5</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>488</v>
-      </c>
-      <c r="B64" t="n">
-        <v>527</v>
-      </c>
-      <c r="C64" t="n">
-        <v>36</v>
-      </c>
-      <c r="D64" t="n">
-        <v>116</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.01772579283733269</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>34.86328125</v>
-      </c>
-      <c r="B65" t="n">
-        <v>199.15234375</v>
-      </c>
-      <c r="C65" t="n">
-        <v>47.3203125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>35.68359375</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>163.3579224050045</v>
-      </c>
-      <c r="B66" t="n">
-        <v>192.9762978851795</v>
-      </c>
-      <c r="C66" t="n">
-        <v>30.4921900331974</v>
-      </c>
-      <c r="D66" t="n">
-        <v>52.41246965527534</v>
-      </c>
-      <c r="E66" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.2105785392742686</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1581</v>
-      </c>
-      <c r="B67" t="n">
-        <v>109</v>
-      </c>
-      <c r="C67" t="n">
-        <v>29</v>
-      </c>
-      <c r="D67" t="n">
-        <v>34</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.1850501688629688</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>1427</v>
-      </c>
-      <c r="B68" t="n">
-        <v>34</v>
-      </c>
-      <c r="C68" t="n">
-        <v>40</v>
-      </c>
-      <c r="D68" t="n">
-        <v>36</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>615</v>
-      </c>
-      <c r="B69" t="n">
-        <v>50</v>
-      </c>
-      <c r="C69" t="n">
-        <v>37</v>
-      </c>
-      <c r="D69" t="n">
-        <v>38</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.2755916954142815</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>377</v>
-      </c>
-      <c r="B70" t="n">
-        <v>76</v>
-      </c>
-      <c r="C70" t="n">
-        <v>67</v>
-      </c>
-      <c r="D70" t="n">
-        <v>35</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>1431.142833709717</v>
-      </c>
-      <c r="B71" t="n">
-        <v>77.32021713256836</v>
-      </c>
-      <c r="C71" t="n">
-        <v>72.76187324523926</v>
-      </c>
-      <c r="D71" t="n">
-        <v>42.89546203613281</v>
-      </c>
-      <c r="E71" t="n">
-        <v>20</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>564</v>
-      </c>
-      <c r="B72" t="n">
-        <v>109.125</v>
-      </c>
-      <c r="C72" t="n">
-        <v>50</v>
-      </c>
-      <c r="D72" t="n">
-        <v>63</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.003759949216270326</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>492.1484375</v>
-      </c>
-      <c r="B73" t="n">
-        <v>61.0625</v>
-      </c>
-      <c r="C73" t="n">
-        <v>69.6015625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>35.828125</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>1088.61181640625</v>
-      </c>
-      <c r="B74" t="n">
-        <v>64.0546875</v>
-      </c>
-      <c r="C74" t="n">
-        <v>92.3251953125</v>
-      </c>
-      <c r="D74" t="n">
-        <v>43.962890625</v>
-      </c>
-      <c r="E74" t="n">
-        <v>12</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>480.3740234375</v>
-      </c>
-      <c r="B75" t="n">
-        <v>128.81396484375</v>
-      </c>
-      <c r="C75" t="n">
-        <v>48.751953125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>54.4853515625</v>
-      </c>
-      <c r="E75" t="n">
-        <v>12</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>394.4609375</v>
-      </c>
-      <c r="B76" t="n">
-        <v>140.03515625</v>
-      </c>
-      <c r="C76" t="n">
-        <v>41.8671875</v>
-      </c>
-      <c r="D76" t="n">
-        <v>60.34765625</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.06517106100120321</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>440.48828125</v>
-      </c>
-      <c r="B77" t="n">
-        <v>138.41796875</v>
-      </c>
-      <c r="C77" t="n">
-        <v>39.3984375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>50.78125</v>
-      </c>
-      <c r="E77" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.09019440775189166</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>269.4921875</v>
-      </c>
-      <c r="B78" t="n">
-        <v>167.015625</v>
-      </c>
-      <c r="C78" t="n">
-        <v>35.9140625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>47.2890625</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.004228671259193012</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>138.75</v>
-      </c>
-      <c r="B79" t="n">
-        <v>193.125</v>
-      </c>
-      <c r="C79" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="D79" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="E79" t="n">
-        <v>4</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.1760204081632653</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="B80" t="n">
-        <v>802.5</v>
-      </c>
-      <c r="C80" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="D80" t="n">
-        <v>53</v>
-      </c>
-      <c r="E80" t="n">
-        <v>2</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
+        <v>0.00897308075772682</v>
       </c>
     </row>
   </sheetData>

--- a/dataBase.xlsx
+++ b/dataBase.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD25"/>
@@ -615,24 +615,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1173.125</v>
+        <v>1159.0625</v>
       </c>
       <c r="B2" t="n">
-        <v>840.75</v>
+        <v>839.875</v>
       </c>
       <c r="C2" t="n">
-        <v>156.75</v>
+        <v>151.375</v>
       </c>
       <c r="D2" t="n">
-        <v>75.625</v>
+        <v>76.3125</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -643,25 +643,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1659.75</v>
+        <v>1658.375</v>
       </c>
       <c r="B3" t="n">
-        <v>764.25</v>
+        <v>767.125</v>
       </c>
       <c r="C3" t="n">
-        <v>104.5</v>
+        <v>101.25</v>
       </c>
       <c r="D3" t="n">
-        <v>69.5</v>
+        <v>71.25</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.02100330024608772</v>
       </c>
     </row>
     <row r="4">
@@ -689,48 +689,48 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1005.125</v>
+        <v>984.5625</v>
       </c>
       <c r="B5" t="n">
-        <v>856.125</v>
+        <v>854.5625</v>
       </c>
       <c r="C5" t="n">
-        <v>151.875</v>
+        <v>161.9375</v>
       </c>
       <c r="D5" t="n">
-        <v>68</v>
+        <v>72.5</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.004025993528921896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1507</v>
+        <v>1517.5</v>
       </c>
       <c r="B6" t="n">
-        <v>793.125</v>
+        <v>790.0625</v>
       </c>
       <c r="C6" t="n">
-        <v>144.875</v>
+        <v>134.9375</v>
       </c>
       <c r="D6" t="n">
-        <v>79.125</v>
+        <v>77.0625</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.02771090965310145</v>
       </c>
     </row>
     <row r="7">
@@ -750,10 +750,10 @@
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.06399888751197945</v>
       </c>
     </row>
     <row r="8">
@@ -773,7 +773,7 @@
         <v>1.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -781,19 +781,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1352.75</v>
+        <v>1354.375</v>
       </c>
       <c r="B9" t="n">
-        <v>815.125</v>
+        <v>812.5625</v>
       </c>
       <c r="C9" t="n">
-        <v>137.25</v>
+        <v>149.625</v>
       </c>
       <c r="D9" t="n">
-        <v>74.625</v>
+        <v>80.3125</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -804,42 +804,42 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>161</v>
+        <v>164.5</v>
       </c>
       <c r="B10" t="n">
-        <v>248.5</v>
+        <v>245.25</v>
       </c>
       <c r="C10" t="n">
-        <v>57.125</v>
+        <v>55.5625</v>
       </c>
       <c r="D10" t="n">
-        <v>40.25</v>
+        <v>40.125</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009763959410720014</v>
+        <v>0.1006651087542693</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89.875</v>
+        <v>94.4375</v>
       </c>
       <c r="B11" t="n">
-        <v>819.5</v>
+        <v>816.25</v>
       </c>
       <c r="C11" t="n">
-        <v>78.375</v>
+        <v>79.6875</v>
       </c>
       <c r="D11" t="n">
-        <v>57.75</v>
+        <v>58.875</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -850,19 +850,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>314.125</v>
+        <v>313.0625</v>
       </c>
       <c r="B12" t="n">
-        <v>213</v>
+        <v>207.5</v>
       </c>
       <c r="C12" t="n">
-        <v>74</v>
+        <v>75.5</v>
       </c>
       <c r="D12" t="n">
-        <v>45.5</v>
+        <v>50.25</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -896,42 +896,42 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>443.75</v>
+        <v>443.375</v>
       </c>
       <c r="B14" t="n">
-        <v>514.875</v>
+        <v>518.9375</v>
       </c>
       <c r="C14" t="n">
-        <v>60.875</v>
+        <v>56.9375</v>
       </c>
       <c r="D14" t="n">
-        <v>109.125</v>
+        <v>104.0625</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.03621766157154081</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>816.75</v>
+        <v>811.875</v>
       </c>
       <c r="B15" t="n">
-        <v>27.5</v>
+        <v>25.75</v>
       </c>
       <c r="C15" t="n">
-        <v>80.375</v>
+        <v>83.1875</v>
       </c>
       <c r="D15" t="n">
-        <v>38.625</v>
+        <v>42.3125</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -988,19 +988,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>184.5</v>
+        <v>182.25</v>
       </c>
       <c r="B18" t="n">
-        <v>484.75</v>
+        <v>480.375</v>
       </c>
       <c r="C18" t="n">
-        <v>36.75</v>
+        <v>38.875</v>
       </c>
       <c r="D18" t="n">
-        <v>72.875</v>
+        <v>74.4375</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1026,27 +1026,27 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.09278491183917283</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>127.5</v>
+        <v>128.75</v>
       </c>
       <c r="B20" t="n">
-        <v>485.625</v>
+        <v>486.8125</v>
       </c>
       <c r="C20" t="n">
-        <v>40.5</v>
+        <v>41.25</v>
       </c>
       <c r="D20" t="n">
-        <v>81.5</v>
+        <v>77.25</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1057,48 +1057,48 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1474.875</v>
+        <v>1474.4375</v>
       </c>
       <c r="B21" t="n">
-        <v>29.875</v>
+        <v>32.4375</v>
       </c>
       <c r="C21" t="n">
-        <v>71.875</v>
+        <v>69.9375</v>
       </c>
       <c r="D21" t="n">
-        <v>41.625</v>
+        <v>42.8125</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.003403829307971468</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1682.125</v>
+        <v>1680.5625</v>
       </c>
       <c r="B22" t="n">
-        <v>59.5</v>
+        <v>60.25</v>
       </c>
       <c r="C22" t="n">
-        <v>56.75</v>
+        <v>54.375</v>
       </c>
       <c r="D22" t="n">
-        <v>37.125</v>
+        <v>38.5625</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00607326628269386</v>
+        <v>0.03745868378786224</v>
       </c>
     </row>
     <row r="23">
@@ -1121,47 +1121,47 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.004876514795892789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.625</v>
+        <v>0.3125</v>
       </c>
       <c r="B24" t="n">
-        <v>292.375</v>
+        <v>289.1875</v>
       </c>
       <c r="C24" t="n">
-        <v>34.75</v>
+        <v>31.875</v>
       </c>
       <c r="D24" t="n">
-        <v>36.75</v>
+        <v>39.375</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.009014719665309855</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1386.75</v>
+        <v>1386.375</v>
       </c>
       <c r="B25" t="n">
-        <v>20.75</v>
+        <v>22.875</v>
       </c>
       <c r="C25" t="n">
-        <v>68.875</v>
+        <v>71.9375</v>
       </c>
       <c r="D25" t="n">
-        <v>40.5</v>
+        <v>43.75</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1172,22 +1172,22 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1679</v>
+        <v>1680.5</v>
       </c>
       <c r="B26" t="n">
-        <v>110</v>
+        <v>112.5</v>
       </c>
       <c r="C26" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D26" t="n">
-        <v>39.5</v>
+        <v>39.75</v>
       </c>
       <c r="E26" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>1.5</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>44.75</v>
+        <v>43.875</v>
       </c>
       <c r="B28" t="n">
-        <v>498.5</v>
+        <v>493.75</v>
       </c>
       <c r="C28" t="n">
-        <v>34.375</v>
+        <v>34.1875</v>
       </c>
       <c r="D28" t="n">
-        <v>74.875</v>
+        <v>76.4375</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1264,19 +1264,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>85.25</v>
+        <v>84.125</v>
       </c>
       <c r="B30" t="n">
-        <v>495</v>
+        <v>491.5</v>
       </c>
       <c r="C30" t="n">
-        <v>36.75</v>
+        <v>36.375</v>
       </c>
       <c r="D30" t="n">
-        <v>75.5</v>
+        <v>75.25</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1287,19 +1287,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1556.25</v>
+        <v>1551.125</v>
       </c>
       <c r="B31" t="n">
-        <v>43</v>
+        <v>44.5</v>
       </c>
       <c r="C31" t="n">
-        <v>58.625</v>
+        <v>60.8125</v>
       </c>
       <c r="D31" t="n">
-        <v>37.625</v>
+        <v>39.8125</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01876767503642129</v>
+        <v>0.1447939509629589</v>
       </c>
     </row>
     <row r="34">
@@ -1371,10 +1371,10 @@
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01463836643520532</v>
+        <v>0.126515310269104</v>
       </c>
     </row>
     <row r="35">
@@ -1397,30 +1397,30 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.09622833073164459</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11.375</v>
+        <v>10.6875</v>
       </c>
       <c r="B36" t="n">
-        <v>503.5</v>
+        <v>497.75</v>
       </c>
       <c r="C36" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
-        <v>71.375</v>
+        <v>73.6875</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01078044336471303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.1572583342534501</v>
       </c>
     </row>
     <row r="38">
@@ -1463,10 +1463,10 @@
         <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.004401374464306398</v>
       </c>
     </row>
     <row r="39">
@@ -1486,10 +1486,10 @@
         <v>1.5</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.1407185628742515</v>
       </c>
     </row>
     <row r="40">
@@ -1512,30 +1512,30 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0.009081546671659956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1622.25</v>
+        <v>1618.625</v>
       </c>
       <c r="B41" t="n">
-        <v>50.25</v>
+        <v>53.125</v>
       </c>
       <c r="C41" t="n">
-        <v>59.75</v>
+        <v>60.875</v>
       </c>
       <c r="D41" t="n">
-        <v>41.25</v>
+        <v>40.125</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.003578177279267722</v>
       </c>
     </row>
     <row r="42">
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.006907115288068278</v>
       </c>
     </row>
     <row r="43">
@@ -1581,24 +1581,24 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.07260998372885519</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="B44" t="n">
-        <v>96.5</v>
+        <v>98.25</v>
       </c>
       <c r="C44" t="n">
-        <v>72.25</v>
+        <v>73.125</v>
       </c>
       <c r="D44" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1627,24 +1627,24 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05514516406115787</v>
+        <v>0.02530208417808774</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>193.375</v>
+        <v>194.6875</v>
       </c>
       <c r="B46" t="n">
-        <v>843.625</v>
+        <v>839.3125</v>
       </c>
       <c r="C46" t="n">
-        <v>99.5</v>
+        <v>103.25</v>
       </c>
       <c r="D46" t="n">
-        <v>61.25</v>
+        <v>65.625</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>253</v>
+        <v>253.5</v>
       </c>
       <c r="B47" t="n">
-        <v>165.5</v>
+        <v>163.75</v>
       </c>
       <c r="C47" t="n">
-        <v>39.5</v>
+        <v>44.75</v>
       </c>
       <c r="D47" t="n">
-        <v>55.5</v>
+        <v>55.25</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.1067477004918496</v>
       </c>
     </row>
     <row r="49">
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.02883991308519344</v>
       </c>
     </row>
     <row r="50">
@@ -1742,30 +1742,30 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.02723641205665174</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>190.75</v>
+        <v>191.375</v>
       </c>
       <c r="B51" t="n">
-        <v>183.375</v>
+        <v>181.1875</v>
       </c>
       <c r="C51" t="n">
-        <v>39.375</v>
+        <v>39.6875</v>
       </c>
       <c r="D51" t="n">
-        <v>52.125</v>
+        <v>52.0625</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.04446438135769688</v>
       </c>
     </row>
     <row r="52">
@@ -1816,25 +1816,25 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>408</v>
+        <v>404.5</v>
       </c>
       <c r="B54" t="n">
-        <v>720.75</v>
+        <v>718.875</v>
       </c>
       <c r="C54" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D54" t="n">
-        <v>119.5</v>
+        <v>114.75</v>
       </c>
       <c r="E54" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.01826546539967686</v>
       </c>
     </row>
     <row r="55">
@@ -1862,25 +1862,25 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1122.25</v>
+        <v>1118.125</v>
       </c>
       <c r="B56" t="n">
-        <v>14.5</v>
+        <v>13.75</v>
       </c>
       <c r="C56" t="n">
-        <v>83</v>
+        <v>80.5</v>
       </c>
       <c r="D56" t="n">
-        <v>43.75</v>
+        <v>44.875</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.03272683114412354</v>
       </c>
     </row>
     <row r="57">
@@ -1908,19 +1908,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1023</v>
+        <v>1016.5</v>
       </c>
       <c r="B58" t="n">
-        <v>14.5</v>
+        <v>15.25</v>
       </c>
       <c r="C58" t="n">
-        <v>76.5</v>
+        <v>78.75</v>
       </c>
       <c r="D58" t="n">
-        <v>42.5</v>
+        <v>42.25</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2000,25 +2000,25 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>727</v>
+        <v>722.5</v>
       </c>
       <c r="B62" t="n">
-        <v>33.5</v>
+        <v>32.75</v>
       </c>
       <c r="C62" t="n">
-        <v>86.5</v>
+        <v>82.25</v>
       </c>
       <c r="D62" t="n">
-        <v>39.5</v>
+        <v>42.25</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.03324924672412585</v>
       </c>
     </row>
     <row r="63">
@@ -2041,7 +2041,122 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.00897308075772682</v>
+        <v>0.1052446802580723</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>310</v>
+      </c>
+      <c r="B64" t="n">
+        <v>833</v>
+      </c>
+      <c r="C64" t="n">
+        <v>144</v>
+      </c>
+      <c r="D64" t="n">
+        <v>76</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>447</v>
+      </c>
+      <c r="B65" t="n">
+        <v>434</v>
+      </c>
+      <c r="C65" t="n">
+        <v>58</v>
+      </c>
+      <c r="D65" t="n">
+        <v>88</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>154</v>
+      </c>
+      <c r="B66" t="n">
+        <v>280</v>
+      </c>
+      <c r="C66" t="n">
+        <v>61</v>
+      </c>
+      <c r="D66" t="n">
+        <v>47</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.01905534157713359</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1883</v>
+      </c>
+      <c r="B67" t="n">
+        <v>721</v>
+      </c>
+      <c r="C67" t="n">
+        <v>35</v>
+      </c>
+      <c r="D67" t="n">
+        <v>58</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>159</v>
+      </c>
+      <c r="B68" t="n">
+        <v>187</v>
+      </c>
+      <c r="C68" t="n">
+        <v>36</v>
+      </c>
+      <c r="D68" t="n">
+        <v>52</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03602620087336245</v>
       </c>
     </row>
   </sheetData>

--- a/dataBase.xlsx
+++ b/dataBase.xlsx
@@ -3,11 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="28800" windowHeight="18000" tabRatio="735" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="M_Kolomenskaya1_1_10_31_E" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="M_Kolomenskaya21_3_12_142_NW" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="M_Kolomenskaya21_3_12_142_N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="M_Kolomenskaya21_3_12_142_W" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="M_Kolomenskaya1_1_10_31_W" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -396,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -406,7 +408,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -423,10 +425,10 @@
         <v>102</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -446,10 +448,10 @@
         <v>176</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -469,10 +471,10 @@
         <v>176</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -492,13 +494,13 @@
         <v>115</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004805273479613525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +517,13 @@
         <v>149</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1214903526280772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -538,13 +540,13 @@
         <v>143</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1304354211291263</v>
+        <v>0.05314044259829549</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +563,10 @@
         <v>104</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -584,12 +586,446 @@
         <v>91</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>323</v>
+      </c>
+      <c r="B10" t="n">
+        <v>471</v>
+      </c>
+      <c r="C10" t="n">
+        <v>94</v>
+      </c>
+      <c r="D10" t="n">
+        <v>78</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.132884479092842</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>397</v>
+      </c>
+      <c r="B11" t="n">
+        <v>520</v>
+      </c>
+      <c r="C11" t="n">
+        <v>120</v>
+      </c>
+      <c r="D11" t="n">
+        <v>110</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>180</v>
+      </c>
+      <c r="B12" t="n">
+        <v>381</v>
+      </c>
+      <c r="C12" t="n">
+        <v>56</v>
+      </c>
+      <c r="D12" t="n">
+        <v>67</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>380</v>
+      </c>
+      <c r="B13" t="n">
+        <v>318</v>
+      </c>
+      <c r="C13" t="n">
+        <v>71</v>
+      </c>
+      <c r="D13" t="n">
+        <v>90</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001471276666889587</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>289</v>
+      </c>
+      <c r="B14" t="n">
+        <v>336</v>
+      </c>
+      <c r="C14" t="n">
+        <v>59</v>
+      </c>
+      <c r="D14" t="n">
+        <v>73</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>200</v>
+      </c>
+      <c r="B15" t="n">
+        <v>470</v>
+      </c>
+      <c r="C15" t="n">
+        <v>112</v>
+      </c>
+      <c r="D15" t="n">
+        <v>72</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>128</v>
+      </c>
+      <c r="B16" t="n">
+        <v>391</v>
+      </c>
+      <c r="C16" t="n">
+        <v>60</v>
+      </c>
+      <c r="D16" t="n">
+        <v>79</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>235</v>
+      </c>
+      <c r="B17" t="n">
+        <v>347</v>
+      </c>
+      <c r="C17" t="n">
+        <v>57</v>
+      </c>
+      <c r="D17" t="n">
+        <v>75</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>243</v>
+      </c>
+      <c r="B18" t="n">
+        <v>209</v>
+      </c>
+      <c r="C18" t="n">
+        <v>67</v>
+      </c>
+      <c r="D18" t="n">
+        <v>57</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>331</v>
+      </c>
+      <c r="B19" t="n">
+        <v>330</v>
+      </c>
+      <c r="C19" t="n">
+        <v>65</v>
+      </c>
+      <c r="D19" t="n">
+        <v>81</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>460</v>
+      </c>
+      <c r="B20" t="n">
+        <v>326</v>
+      </c>
+      <c r="C20" t="n">
+        <v>118</v>
+      </c>
+      <c r="D20" t="n">
+        <v>121</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2216790772241048</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>185</v>
+      </c>
+      <c r="B21" t="n">
+        <v>293</v>
+      </c>
+      <c r="C21" t="n">
+        <v>102</v>
+      </c>
+      <c r="D21" t="n">
+        <v>80</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>149</v>
+      </c>
+      <c r="B22" t="n">
+        <v>207</v>
+      </c>
+      <c r="C22" t="n">
+        <v>70</v>
+      </c>
+      <c r="D22" t="n">
+        <v>65</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>617</v>
+      </c>
+      <c r="B23" t="n">
+        <v>386</v>
+      </c>
+      <c r="C23" t="n">
+        <v>63</v>
+      </c>
+      <c r="D23" t="n">
+        <v>115</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>545</v>
+      </c>
+      <c r="B24" t="n">
+        <v>383</v>
+      </c>
+      <c r="C24" t="n">
+        <v>54</v>
+      </c>
+      <c r="D24" t="n">
+        <v>108</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>642</v>
+      </c>
+      <c r="B25" t="n">
+        <v>57</v>
+      </c>
+      <c r="C25" t="n">
+        <v>50</v>
+      </c>
+      <c r="D25" t="n">
+        <v>37</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.05103448275862069</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>687</v>
+      </c>
+      <c r="B26" t="n">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>49</v>
+      </c>
+      <c r="D26" t="n">
+        <v>40</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>429</v>
+      </c>
+      <c r="B27" t="n">
+        <v>407</v>
+      </c>
+      <c r="C27" t="n">
+        <v>85</v>
+      </c>
+      <c r="D27" t="n">
+        <v>101</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>321</v>
+      </c>
+      <c r="B28" t="n">
+        <v>70</v>
+      </c>
+      <c r="C28" t="n">
+        <v>46</v>
+      </c>
+      <c r="D28" t="n">
+        <v>39</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -605,9 +1041,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A16" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
@@ -615,24 +1051,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1159.0625</v>
+        <v>1170.748168945312</v>
       </c>
       <c r="B2" t="n">
-        <v>839.875</v>
+        <v>838.271240234375</v>
       </c>
       <c r="C2" t="n">
-        <v>151.375</v>
+        <v>134.385498046875</v>
       </c>
       <c r="D2" t="n">
-        <v>76.3125</v>
+        <v>73.5162353515625</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -643,42 +1079,42 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1658.375</v>
+        <v>1656.384857177734</v>
       </c>
       <c r="B3" t="n">
-        <v>767.125</v>
+        <v>768.7822570800781</v>
       </c>
       <c r="C3" t="n">
-        <v>101.25</v>
+        <v>98.16339111328125</v>
       </c>
       <c r="D3" t="n">
-        <v>71.25</v>
+        <v>68.60943603515625</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02100330024608772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>640.5</v>
+        <v>652.2552490234375</v>
       </c>
       <c r="B4" t="n">
-        <v>865.5</v>
+        <v>868.9288330078125</v>
       </c>
       <c r="C4" t="n">
-        <v>151.5</v>
+        <v>166.8206787109375</v>
       </c>
       <c r="D4" t="n">
-        <v>73.5</v>
+        <v>74.8836669921875</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -689,88 +1125,88 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>984.5625</v>
+        <v>1006.936904907227</v>
       </c>
       <c r="B5" t="n">
-        <v>854.5625</v>
+        <v>857.1212310791016</v>
       </c>
       <c r="C5" t="n">
-        <v>161.9375</v>
+        <v>155.0668792724609</v>
       </c>
       <c r="D5" t="n">
-        <v>72.5</v>
+        <v>73.1966552734375</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004025993528921896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1517.5</v>
+        <v>1525.246704101562</v>
       </c>
       <c r="B6" t="n">
-        <v>790.0625</v>
+        <v>787.5551910400391</v>
       </c>
       <c r="C6" t="n">
-        <v>134.9375</v>
+        <v>121.024642944336</v>
       </c>
       <c r="D6" t="n">
-        <v>77.0625</v>
+        <v>75.35328674316406</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02771090965310145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>834</v>
+        <v>832.515625</v>
       </c>
       <c r="B7" t="n">
-        <v>866.875</v>
+        <v>866.933349609375</v>
       </c>
       <c r="C7" t="n">
-        <v>153.125</v>
+        <v>142.431884765625</v>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>69.580078125</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06399888751197945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1773.5</v>
+        <v>1764.2353515625</v>
       </c>
       <c r="B8" t="n">
-        <v>743.5</v>
+        <v>744.5029296875</v>
       </c>
       <c r="C8" t="n">
-        <v>89</v>
+        <v>87.515625</v>
       </c>
       <c r="D8" t="n">
-        <v>61.5</v>
+        <v>62.2490234375</v>
       </c>
       <c r="E8" t="n">
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -781,19 +1217,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1354.375</v>
+        <v>1358.643310546875</v>
       </c>
       <c r="B9" t="n">
-        <v>812.5625</v>
+        <v>813.7530517578125</v>
       </c>
       <c r="C9" t="n">
-        <v>149.625</v>
+        <v>134.571533203125</v>
       </c>
       <c r="D9" t="n">
-        <v>80.3125</v>
+        <v>76.9224853515625</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -816,30 +1252,30 @@
         <v>40.125</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1006651087542693</v>
+        <v>0.01845142765329975</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94.4375</v>
+        <v>100.8370208740234</v>
       </c>
       <c r="B11" t="n">
-        <v>816.25</v>
+        <v>821.7664184570312</v>
       </c>
       <c r="C11" t="n">
-        <v>79.6875</v>
+        <v>83.05046081542969</v>
       </c>
       <c r="D11" t="n">
-        <v>58.875</v>
+        <v>59.92160034179688</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -862,10 +1298,10 @@
         <v>50.25</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -885,53 +1321,53 @@
         <v>42.375</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.007304662395399222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>443.375</v>
+        <v>447.8243103027344</v>
       </c>
       <c r="B14" t="n">
-        <v>518.9375</v>
+        <v>520.4152679443359</v>
       </c>
       <c r="C14" t="n">
-        <v>56.9375</v>
+        <v>53.73777770996094</v>
       </c>
       <c r="D14" t="n">
-        <v>104.0625</v>
+        <v>92.12452697753906</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03621766157154081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>811.875</v>
+        <v>799.9313659667969</v>
       </c>
       <c r="B15" t="n">
-        <v>25.75</v>
+        <v>29.46136474609375</v>
       </c>
       <c r="C15" t="n">
-        <v>83.1875</v>
+        <v>74.13481140136719</v>
       </c>
       <c r="D15" t="n">
-        <v>42.3125</v>
+        <v>36.95735168457031</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -960,24 +1396,24 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.08590706733444629</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106.875</v>
+        <v>112.8193359375</v>
       </c>
       <c r="B17" t="n">
-        <v>261.75</v>
+        <v>251.951171875</v>
       </c>
       <c r="C17" t="n">
-        <v>47</v>
+        <v>54.203125</v>
       </c>
       <c r="D17" t="n">
-        <v>38.875</v>
+        <v>44.9521484375</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -988,19 +1424,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>182.25</v>
+        <v>179.7009887695312</v>
       </c>
       <c r="B18" t="n">
-        <v>480.375</v>
+        <v>480.7984313964844</v>
       </c>
       <c r="C18" t="n">
-        <v>38.875</v>
+        <v>36.30490112304688</v>
       </c>
       <c r="D18" t="n">
-        <v>74.4375</v>
+        <v>68.06578063964844</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1023,30 +1459,30 @@
         <v>49.375</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09278491183917283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>128.75</v>
+        <v>122.3549194335938</v>
       </c>
       <c r="B20" t="n">
-        <v>486.8125</v>
+        <v>483.1427764892578</v>
       </c>
       <c r="C20" t="n">
-        <v>41.25</v>
+        <v>39.46954345703125</v>
       </c>
       <c r="D20" t="n">
-        <v>77.25</v>
+        <v>79.17657470703125</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1057,48 +1493,48 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1474.4375</v>
+        <v>1460.548278808594</v>
       </c>
       <c r="B21" t="n">
-        <v>32.4375</v>
+        <v>35.52386474609375</v>
       </c>
       <c r="C21" t="n">
-        <v>69.9375</v>
+        <v>67.26458740234375</v>
       </c>
       <c r="D21" t="n">
-        <v>42.8125</v>
+        <v>38.49395751953125</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>14.5</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.003403829307971468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1680.5625</v>
+        <v>1677.232070922852</v>
       </c>
       <c r="B22" t="n">
-        <v>60.25</v>
+        <v>65.23883056640625</v>
       </c>
       <c r="C22" t="n">
-        <v>54.375</v>
+        <v>54.31088256835938</v>
       </c>
       <c r="D22" t="n">
-        <v>38.5625</v>
+        <v>35.60682678222656</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03745868378786224</v>
+        <v>0.004201188158735463</v>
       </c>
     </row>
     <row r="23">
@@ -1126,42 +1562,42 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.3125</v>
+        <v>0.0390625</v>
       </c>
       <c r="B24" t="n">
-        <v>289.1875</v>
+        <v>286.6484375</v>
       </c>
       <c r="C24" t="n">
-        <v>31.875</v>
+        <v>29.609375</v>
       </c>
       <c r="D24" t="n">
-        <v>39.375</v>
+        <v>37.046875</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.009014719665309855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1386.375</v>
+        <v>1382.586517333984</v>
       </c>
       <c r="B25" t="n">
-        <v>22.875</v>
+        <v>30.06613159179688</v>
       </c>
       <c r="C25" t="n">
-        <v>71.9375</v>
+        <v>69.04734802246094</v>
       </c>
       <c r="D25" t="n">
-        <v>43.75</v>
+        <v>35.89105224609375</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1172,42 +1608,42 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1680.5</v>
+        <v>1675.317260742188</v>
       </c>
       <c r="B26" t="n">
-        <v>112.5</v>
+        <v>107.8348388671875</v>
       </c>
       <c r="C26" t="n">
-        <v>58</v>
+        <v>66.49365234375</v>
       </c>
       <c r="D26" t="n">
-        <v>39.75</v>
+        <v>46.01458740234375</v>
       </c>
       <c r="E26" t="n">
-        <v>2.5</v>
+        <v>14.5</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.000376864328723105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26.5</v>
+        <v>31.0850830078125</v>
       </c>
       <c r="B27" t="n">
-        <v>808.5</v>
+        <v>802.0914306640625</v>
       </c>
       <c r="C27" t="n">
-        <v>47.5</v>
+        <v>56.9559326171875</v>
       </c>
       <c r="D27" t="n">
-        <v>50.5</v>
+        <v>59.0626220703125</v>
       </c>
       <c r="E27" t="n">
-        <v>1.5</v>
+        <v>13.5</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1218,19 +1654,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43.875</v>
+        <v>41.55856323242188</v>
       </c>
       <c r="B28" t="n">
-        <v>493.75</v>
+        <v>497.0917358398438</v>
       </c>
       <c r="C28" t="n">
-        <v>34.1875</v>
+        <v>33.99345397949219</v>
       </c>
       <c r="D28" t="n">
-        <v>76.4375</v>
+        <v>73.28990173339844</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1253,10 +1689,10 @@
         <v>58.75</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1264,19 +1700,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>84.125</v>
+        <v>80.87039184570312</v>
       </c>
       <c r="B30" t="n">
-        <v>491.5</v>
+        <v>494.7706298828125</v>
       </c>
       <c r="C30" t="n">
-        <v>36.375</v>
+        <v>37.50497436523438</v>
       </c>
       <c r="D30" t="n">
-        <v>75.25</v>
+        <v>71.79937744140625</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1287,19 +1723,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1551.125</v>
+        <v>1540.551300048828</v>
       </c>
       <c r="B31" t="n">
-        <v>44.5</v>
+        <v>43.5885009765625</v>
       </c>
       <c r="C31" t="n">
-        <v>60.8125</v>
+        <v>64.04780578613281</v>
       </c>
       <c r="D31" t="n">
-        <v>39.8125</v>
+        <v>37.64204406738281</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1351,30 +1787,30 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1447939509629589</v>
+        <v>0.0009005662882931471</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>296.375</v>
+        <v>295.09375</v>
       </c>
       <c r="B34" t="n">
-        <v>162.375</v>
+        <v>155.84375</v>
       </c>
       <c r="C34" t="n">
-        <v>40.375</v>
+        <v>49.59375</v>
       </c>
       <c r="D34" t="n">
-        <v>49.375</v>
+        <v>62.34375</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0.126515310269104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1397,24 +1833,24 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09622833073164459</v>
+        <v>0.06906624880333867</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10.6875</v>
+        <v>5.258224487304688</v>
       </c>
       <c r="B36" t="n">
-        <v>497.75</v>
+        <v>496.3134155273438</v>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>34.016845703125</v>
       </c>
       <c r="D36" t="n">
-        <v>73.6875</v>
+        <v>76.99137878417969</v>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1437,13 +1873,13 @@
         <v>59.5</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1572583342534501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1463,10 +1899,10 @@
         <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.004401374464306398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1489,27 +1925,27 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1407185628742515</v>
+        <v>0.09479396303205019</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>463</v>
+        <v>1611.886047363281</v>
       </c>
       <c r="B40" t="n">
-        <v>117</v>
+        <v>55.14898681640625</v>
       </c>
       <c r="C40" t="n">
-        <v>44</v>
+        <v>59.67034912109375</v>
       </c>
       <c r="D40" t="n">
-        <v>67.5</v>
+        <v>37.37261962890625</v>
       </c>
       <c r="E40" t="n">
-        <v>1.5</v>
+        <v>16</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1517,39 +1953,39 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1618.625</v>
+        <v>1800.125</v>
       </c>
       <c r="B41" t="n">
-        <v>53.125</v>
+        <v>81.625</v>
       </c>
       <c r="C41" t="n">
-        <v>60.875</v>
+        <v>47.375</v>
       </c>
       <c r="D41" t="n">
-        <v>40.125</v>
+        <v>38.375</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.003578177279267722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1800.125</v>
+        <v>641</v>
       </c>
       <c r="B42" t="n">
-        <v>81.625</v>
+        <v>46.375</v>
       </c>
       <c r="C42" t="n">
-        <v>47.375</v>
+        <v>38.625</v>
       </c>
       <c r="D42" t="n">
-        <v>38.375</v>
+        <v>53.625</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -1558,50 +1994,50 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.006907115288068278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>641</v>
+        <v>1524.3447265625</v>
       </c>
       <c r="B43" t="n">
-        <v>46.375</v>
+        <v>94.683837890625</v>
       </c>
       <c r="C43" t="n">
-        <v>38.625</v>
+        <v>75.7384033203125</v>
       </c>
       <c r="D43" t="n">
-        <v>53.625</v>
+        <v>43.63525390625</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07260998372885519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1531</v>
+        <v>189.671875</v>
       </c>
       <c r="B44" t="n">
-        <v>98.25</v>
+        <v>839.078125</v>
       </c>
       <c r="C44" t="n">
-        <v>73.125</v>
+        <v>100.3125</v>
       </c>
       <c r="D44" t="n">
-        <v>40.5</v>
+        <v>69.15625</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1609,42 +2045,42 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>339.5</v>
+        <v>260.9814453125</v>
       </c>
       <c r="B45" t="n">
-        <v>152.5</v>
+        <v>172.53662109375</v>
       </c>
       <c r="C45" t="n">
-        <v>39</v>
+        <v>39.44287109375</v>
       </c>
       <c r="D45" t="n">
-        <v>53.5</v>
+        <v>50.06884765625</v>
       </c>
       <c r="E45" t="n">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02530208417808774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>194.6875</v>
+        <v>1210.248291015625</v>
       </c>
       <c r="B46" t="n">
-        <v>839.3125</v>
+        <v>17.52197265625</v>
       </c>
       <c r="C46" t="n">
-        <v>103.25</v>
+        <v>73.0732421875</v>
       </c>
       <c r="D46" t="n">
-        <v>65.625</v>
+        <v>39.715576171875</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1655,19 +2091,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>253.5</v>
+        <v>683.5</v>
       </c>
       <c r="B47" t="n">
-        <v>163.75</v>
+        <v>40.5</v>
       </c>
       <c r="C47" t="n">
-        <v>44.75</v>
+        <v>38.875</v>
       </c>
       <c r="D47" t="n">
-        <v>55.25</v>
+        <v>56.25</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1678,111 +2114,111 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1219.125</v>
+        <v>935.5</v>
       </c>
       <c r="B48" t="n">
-        <v>19.25</v>
+        <v>18.5</v>
       </c>
       <c r="C48" t="n">
-        <v>71.5</v>
+        <v>79</v>
       </c>
       <c r="D48" t="n">
-        <v>38.375</v>
+        <v>37.5</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1067477004918496</v>
+        <v>0.04749841671944269</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>683.5</v>
+        <v>193.84375</v>
       </c>
       <c r="B49" t="n">
-        <v>40.5</v>
+        <v>183.796875</v>
       </c>
       <c r="C49" t="n">
-        <v>38.875</v>
+        <v>40.671875</v>
       </c>
       <c r="D49" t="n">
-        <v>56.25</v>
+        <v>50.765625</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02883991308519344</v>
+        <v>0.003420859673251822</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>935.5</v>
+        <v>220</v>
       </c>
       <c r="B50" t="n">
-        <v>18.5</v>
+        <v>176.5</v>
       </c>
       <c r="C50" t="n">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D50" t="n">
-        <v>37.5</v>
+        <v>54.25</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02723641205665174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>191.375</v>
+        <v>1610.98779296875</v>
       </c>
       <c r="B51" t="n">
-        <v>181.1875</v>
+        <v>106.21337890625</v>
       </c>
       <c r="C51" t="n">
-        <v>39.6875</v>
+        <v>58.68017578125</v>
       </c>
       <c r="D51" t="n">
-        <v>52.0625</v>
+        <v>40.4658203125</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04446438135769688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>218</v>
+        <v>392.9716796875</v>
       </c>
       <c r="B52" t="n">
-        <v>175</v>
+        <v>714.872802734375</v>
       </c>
       <c r="C52" t="n">
-        <v>35</v>
+        <v>73.0234375</v>
       </c>
       <c r="D52" t="n">
-        <v>53.5</v>
+        <v>127.95654296875</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -1793,22 +2229,22 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1611.5</v>
+        <v>1292.05712890625</v>
       </c>
       <c r="B53" t="n">
-        <v>95.5</v>
+        <v>24.48828125</v>
       </c>
       <c r="C53" t="n">
-        <v>61.5</v>
+        <v>77.28515625</v>
       </c>
       <c r="D53" t="n">
-        <v>43</v>
+        <v>37.9013671875</v>
       </c>
       <c r="E53" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1816,45 +2252,45 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>404.5</v>
+        <v>1109.445098876953</v>
       </c>
       <c r="B54" t="n">
-        <v>718.875</v>
+        <v>16.71917724609375</v>
       </c>
       <c r="C54" t="n">
-        <v>72</v>
+        <v>80.3878173828125</v>
       </c>
       <c r="D54" t="n">
-        <v>114.75</v>
+        <v>40.83932495117188</v>
       </c>
       <c r="E54" t="n">
-        <v>3.5</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01826546539967686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1307.25</v>
+        <v>248</v>
       </c>
       <c r="B55" t="n">
-        <v>19</v>
+        <v>476</v>
       </c>
       <c r="C55" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D55" t="n">
-        <v>38.5</v>
+        <v>83</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1862,45 +2298,45 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1118.125</v>
+        <v>1007.228881835938</v>
       </c>
       <c r="B56" t="n">
-        <v>13.75</v>
+        <v>18.27911376953125</v>
       </c>
       <c r="C56" t="n">
-        <v>80.5</v>
+        <v>80.89666748046875</v>
       </c>
       <c r="D56" t="n">
-        <v>44.875</v>
+        <v>39.68853759765625</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03272683114412354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>248</v>
+        <v>314.75732421875</v>
       </c>
       <c r="B57" t="n">
-        <v>476</v>
+        <v>461.748779296875</v>
       </c>
       <c r="C57" t="n">
-        <v>48</v>
+        <v>48.26953125</v>
       </c>
       <c r="D57" t="n">
-        <v>83</v>
+        <v>83.45361328125</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1908,19 +2344,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1016.5</v>
+        <v>702.1278076171875</v>
       </c>
       <c r="B58" t="n">
-        <v>15.25</v>
+        <v>36.05511474609375</v>
       </c>
       <c r="C58" t="n">
-        <v>78.75</v>
+        <v>81.02203369140625</v>
       </c>
       <c r="D58" t="n">
-        <v>42.25</v>
+        <v>40.49224853515625</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -1931,45 +2367,45 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>316</v>
+        <v>126.75</v>
       </c>
       <c r="B59" t="n">
-        <v>463.5</v>
+        <v>201.921875</v>
       </c>
       <c r="C59" t="n">
-        <v>50</v>
+        <v>35.1875</v>
       </c>
       <c r="D59" t="n">
-        <v>94</v>
+        <v>48.703125</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.05559999232112252</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>378</v>
+        <v>444.5498046875</v>
       </c>
       <c r="B60" t="n">
-        <v>76.5</v>
+        <v>435.81494140625</v>
       </c>
       <c r="C60" t="n">
-        <v>67.5</v>
+        <v>60.931884765625</v>
       </c>
       <c r="D60" t="n">
-        <v>36.5</v>
+        <v>78.080078125</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1977,22 +2413,22 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>494</v>
+        <v>1886.963623046875</v>
       </c>
       <c r="B61" t="n">
-        <v>63.5</v>
+        <v>717.693359375</v>
       </c>
       <c r="C61" t="n">
-        <v>70</v>
+        <v>31.278564453125</v>
       </c>
       <c r="D61" t="n">
-        <v>31.5</v>
+        <v>58.635498046875</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2000,167 +2436,516 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>722.5</v>
+        <v>158.625</v>
       </c>
       <c r="B62" t="n">
-        <v>32.75</v>
+        <v>193.625</v>
       </c>
       <c r="C62" t="n">
-        <v>82.25</v>
+        <v>37.953125</v>
       </c>
       <c r="D62" t="n">
-        <v>42.25</v>
+        <v>48.390625</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03324924672412585</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>133</v>
-      </c>
-      <c r="B63" t="n">
-        <v>203.5</v>
-      </c>
-      <c r="C63" t="n">
-        <v>34</v>
-      </c>
-      <c r="D63" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.1052446802580723</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>310</v>
-      </c>
-      <c r="B64" t="n">
-        <v>833</v>
-      </c>
-      <c r="C64" t="n">
-        <v>144</v>
-      </c>
-      <c r="D64" t="n">
-        <v>76</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>447</v>
-      </c>
-      <c r="B65" t="n">
-        <v>434</v>
-      </c>
-      <c r="C65" t="n">
-        <v>58</v>
-      </c>
-      <c r="D65" t="n">
-        <v>88</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>154</v>
-      </c>
-      <c r="B66" t="n">
-        <v>280</v>
-      </c>
-      <c r="C66" t="n">
-        <v>61</v>
-      </c>
-      <c r="D66" t="n">
-        <v>47</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.01905534157713359</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1883</v>
-      </c>
-      <c r="B67" t="n">
-        <v>721</v>
-      </c>
-      <c r="C67" t="n">
-        <v>35</v>
-      </c>
-      <c r="D67" t="n">
-        <v>58</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>159</v>
-      </c>
-      <c r="B68" t="n">
-        <v>187</v>
-      </c>
-      <c r="C68" t="n">
-        <v>36</v>
-      </c>
-      <c r="D68" t="n">
-        <v>52</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.03602620087336245</v>
+        <v>0.05721121566415072</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView view="normal" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10" defaultRowHeight="15.8"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
+  <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10" defaultRowHeight="15.8"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>696</v>
+      </c>
+      <c r="B2" t="n">
+        <v>401</v>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>106</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>617</v>
+      </c>
+      <c r="B3" t="n">
+        <v>384</v>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.09528139840355664</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>544</v>
+      </c>
+      <c r="B4" t="n">
+        <v>382</v>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>109</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1284185493460167</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>643</v>
+      </c>
+      <c r="B5" t="n">
+        <v>57</v>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>337</v>
+      </c>
+      <c r="B6" t="n">
+        <v>519</v>
+      </c>
+      <c r="C6" t="n">
+        <v>154</v>
+      </c>
+      <c r="D6" t="n">
+        <v>80</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.136986301369863</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>660</v>
+      </c>
+      <c r="B7" t="n">
+        <v>615</v>
+      </c>
+      <c r="C7" t="n">
+        <v>147</v>
+      </c>
+      <c r="D7" t="n">
+        <v>75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>322</v>
+      </c>
+      <c r="B8" t="n">
+        <v>70</v>
+      </c>
+      <c r="C8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>39</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>686</v>
+      </c>
+      <c r="B9" t="n">
+        <v>55</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>428</v>
+      </c>
+      <c r="B10" t="n">
+        <v>404</v>
+      </c>
+      <c r="C10" t="n">
+        <v>86</v>
+      </c>
+      <c r="D10" t="n">
+        <v>103</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1977255277273373</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>376</v>
+      </c>
+      <c r="B11" t="n">
+        <v>71</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29</v>
+      </c>
+      <c r="D11" t="n">
+        <v>35</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>322</v>
+      </c>
+      <c r="B12" t="n">
+        <v>469</v>
+      </c>
+      <c r="C12" t="n">
+        <v>95</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03053213143355627</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>188</v>
+      </c>
+      <c r="B13" t="n">
+        <v>291</v>
+      </c>
+      <c r="C13" t="n">
+        <v>104</v>
+      </c>
+      <c r="D13" t="n">
+        <v>83</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1378745983727937</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>379</v>
+      </c>
+      <c r="B14" t="n">
+        <v>316</v>
+      </c>
+      <c r="C14" t="n">
+        <v>73</v>
+      </c>
+      <c r="D14" t="n">
+        <v>94</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1273231622746186</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>289</v>
+      </c>
+      <c r="B15" t="n">
+        <v>334</v>
+      </c>
+      <c r="C15" t="n">
+        <v>60</v>
+      </c>
+      <c r="D15" t="n">
+        <v>75</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.02258377853326858</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>459</v>
+      </c>
+      <c r="B16" t="n">
+        <v>325</v>
+      </c>
+      <c r="C16" t="n">
+        <v>121</v>
+      </c>
+      <c r="D16" t="n">
+        <v>123</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>244</v>
+      </c>
+      <c r="B17" t="n">
+        <v>211</v>
+      </c>
+      <c r="C17" t="n">
+        <v>68</v>
+      </c>
+      <c r="D17" t="n">
+        <v>55</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>199</v>
+      </c>
+      <c r="B18" t="n">
+        <v>470</v>
+      </c>
+      <c r="C18" t="n">
+        <v>113</v>
+      </c>
+      <c r="D18" t="n">
+        <v>73</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>128</v>
+      </c>
+      <c r="B19" t="n">
+        <v>391</v>
+      </c>
+      <c r="C19" t="n">
+        <v>62</v>
+      </c>
+      <c r="D19" t="n">
+        <v>79</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>239</v>
+      </c>
+      <c r="B20" t="n">
+        <v>347</v>
+      </c>
+      <c r="C20" t="n">
+        <v>53</v>
+      </c>
+      <c r="D20" t="n">
+        <v>74</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
+  <pageSetup paperSize="9" fitToHeight="1" fitToWidth="0" pageOrder="overThenDown"/>
+</worksheet>
 </file>
--- a/dataBase.xlsx
+++ b/dataBase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="28800" windowHeight="18000" tabRatio="735" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="60" windowWidth="28800" windowHeight="18000" tabRatio="735" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="M_Kolomenskaya1_1_10_31_E" sheetId="1" state="visible" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -425,7 +425,7 @@
         <v>102</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>176</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -471,7 +471,7 @@
         <v>176</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -494,10 +494,10 @@
         <v>115</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>149</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>143</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -563,7 +563,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -586,7 +586,7 @@
         <v>91</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>110</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>90</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -724,7 +724,7 @@
         <v>72</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>79</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>75</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>57</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -816,7 +816,7 @@
         <v>81</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -839,10 +839,10 @@
         <v>121</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0.2216790772241048</v>
@@ -862,7 +862,7 @@
         <v>80</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>65</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -908,10 +908,10 @@
         <v>115</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -931,10 +931,10 @@
         <v>108</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -954,13 +954,13 @@
         <v>37</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05103448275862069</v>
+        <v>0.05103448275862068</v>
       </c>
     </row>
     <row r="26">
@@ -977,10 +977,10 @@
         <v>40</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>101</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>39</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD25"/>
@@ -1051,7 +1051,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -1068,30 +1068,30 @@
         <v>73.5162353515625</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.04398543469783837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1656.384857177734</v>
+        <v>1657.969820521772</v>
       </c>
       <c r="B3" t="n">
-        <v>768.7822570800781</v>
+        <v>765.9518511369824</v>
       </c>
       <c r="C3" t="n">
-        <v>98.16339111328125</v>
+        <v>92.97806723415852</v>
       </c>
       <c r="D3" t="n">
-        <v>68.60943603515625</v>
+        <v>63.21499253809452</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>652.2552490234375</v>
+        <v>669.8184216916561</v>
       </c>
       <c r="B4" t="n">
-        <v>868.9288330078125</v>
+        <v>867.011701375246</v>
       </c>
       <c r="C4" t="n">
-        <v>166.8206787109375</v>
+        <v>167.1479054391384</v>
       </c>
       <c r="D4" t="n">
-        <v>74.8836669921875</v>
+        <v>75.06198331713676</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>25.5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>1006.936904907227</v>
       </c>
       <c r="B5" t="n">
-        <v>857.1212310791016</v>
+        <v>857.1212310791014</v>
       </c>
       <c r="C5" t="n">
         <v>155.0668792724609</v>
@@ -1137,30 +1137,30 @@
         <v>73.1966552734375</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.03682357461426825</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1525.246704101562</v>
+        <v>1541.120421558619</v>
       </c>
       <c r="B6" t="n">
-        <v>787.5551910400391</v>
+        <v>786.0428601540625</v>
       </c>
       <c r="C6" t="n">
-        <v>121.024642944336</v>
+        <v>103.0502989850939</v>
       </c>
       <c r="D6" t="n">
-        <v>75.35328674316406</v>
+        <v>68.87508625164628</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1183,30 +1183,30 @@
         <v>69.580078125</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.01409006243274886</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1764.2353515625</v>
+        <v>1765.061825037003</v>
       </c>
       <c r="B8" t="n">
-        <v>744.5029296875</v>
+        <v>744.0191657543182</v>
       </c>
       <c r="C8" t="n">
-        <v>87.515625</v>
+        <v>84.37610244750977</v>
       </c>
       <c r="D8" t="n">
-        <v>62.2490234375</v>
+        <v>60.05499243736267</v>
       </c>
       <c r="E8" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1217,19 +1217,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1358.643310546875</v>
+        <v>1368.810459792614</v>
       </c>
       <c r="B9" t="n">
-        <v>813.7530517578125</v>
+        <v>814.0075080692768</v>
       </c>
       <c r="C9" t="n">
-        <v>134.571533203125</v>
+        <v>149.4791434407234</v>
       </c>
       <c r="D9" t="n">
-        <v>76.9224853515625</v>
+        <v>83.12376037240028</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>25.5</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1252,30 +1252,30 @@
         <v>40.125</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01845142765329975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100.8370208740234</v>
+        <v>99.02779224142432</v>
       </c>
       <c r="B11" t="n">
-        <v>821.7664184570312</v>
+        <v>815.1637613326311</v>
       </c>
       <c r="C11" t="n">
-        <v>83.05046081542969</v>
+        <v>86.36158458516002</v>
       </c>
       <c r="D11" t="n">
-        <v>59.92160034179688</v>
+        <v>64.96409218758345</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1286,22 +1286,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>313.0625</v>
+        <v>306.0385894775391</v>
       </c>
       <c r="B12" t="n">
-        <v>207.5</v>
+        <v>208.9539794921875</v>
       </c>
       <c r="C12" t="n">
-        <v>75.5</v>
+        <v>64.4735107421875</v>
       </c>
       <c r="D12" t="n">
-        <v>50.25</v>
+        <v>42.07330322265625</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>13.5</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1321,13 +1321,13 @@
         <v>42.375</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007304662395399222</v>
+        <v>0.003215044492158222</v>
       </c>
     </row>
     <row r="14">
@@ -1344,10 +1344,10 @@
         <v>92.12452697753906</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1355,19 +1355,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>799.9313659667969</v>
+        <v>802.0324539467692</v>
       </c>
       <c r="B15" t="n">
-        <v>29.46136474609375</v>
+        <v>25.94322787225246</v>
       </c>
       <c r="C15" t="n">
-        <v>74.13481140136719</v>
+        <v>81.00393916293979</v>
       </c>
       <c r="D15" t="n">
-        <v>36.95735168457031</v>
+        <v>39.34056575968862</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>35.625</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08590706733444629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1413,7 +1413,7 @@
         <v>44.9521484375</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>179.7009887695312</v>
+        <v>179.0341066867113</v>
       </c>
       <c r="B18" t="n">
-        <v>480.7984313964844</v>
+        <v>477.4977535232902</v>
       </c>
       <c r="C18" t="n">
-        <v>36.30490112304688</v>
+        <v>39.46320920437574</v>
       </c>
       <c r="D18" t="n">
-        <v>68.06578063964844</v>
+        <v>70.47828754410148</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         <v>49.375</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1470,19 +1470,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>122.3549194335938</v>
+        <v>128.0296276658773</v>
       </c>
       <c r="B20" t="n">
-        <v>483.1427764892578</v>
+        <v>480.1025739200413</v>
       </c>
       <c r="C20" t="n">
-        <v>39.46954345703125</v>
+        <v>40.00426502525806</v>
       </c>
       <c r="D20" t="n">
-        <v>79.17657470703125</v>
+        <v>77.07890053093433</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1460.548278808594</v>
+        <v>1467.931774482131</v>
       </c>
       <c r="B21" t="n">
-        <v>35.52386474609375</v>
+        <v>32.54285250604153</v>
       </c>
       <c r="C21" t="n">
-        <v>67.26458740234375</v>
+        <v>58.99664662778378</v>
       </c>
       <c r="D21" t="n">
-        <v>38.49395751953125</v>
+        <v>35.50427098572254</v>
       </c>
       <c r="E21" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1516,25 +1516,25 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1677.232070922852</v>
+        <v>1677.072125554085</v>
       </c>
       <c r="B22" t="n">
-        <v>65.23883056640625</v>
+        <v>64.10342836380005</v>
       </c>
       <c r="C22" t="n">
-        <v>54.31088256835938</v>
+        <v>55.95555377006531</v>
       </c>
       <c r="D22" t="n">
-        <v>35.60682678222656</v>
+        <v>35.92661583423615</v>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>23.5</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004201188158735463</v>
+        <v>0.0145941883904606</v>
       </c>
     </row>
     <row r="23">
@@ -1551,30 +1551,30 @@
         <v>35.875</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.1459834652283478</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.0390625</v>
+        <v>1.9073486328125e-05</v>
       </c>
       <c r="B24" t="n">
-        <v>286.6484375</v>
+        <v>282.753246307373</v>
       </c>
       <c r="C24" t="n">
-        <v>29.609375</v>
+        <v>35.99687957763672</v>
       </c>
       <c r="D24" t="n">
-        <v>37.046875</v>
+        <v>41.31594085693359</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1585,19 +1585,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1382.586517333984</v>
+        <v>1382.374410770833</v>
       </c>
       <c r="B25" t="n">
-        <v>30.06613159179688</v>
+        <v>26.90846341103315</v>
       </c>
       <c r="C25" t="n">
-        <v>69.04734802246094</v>
+        <v>66.3916131220758</v>
       </c>
       <c r="D25" t="n">
-        <v>35.89105224609375</v>
+        <v>34.16403590142727</v>
       </c>
       <c r="E25" t="n">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1608,42 +1608,42 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1675.317260742188</v>
+        <v>1681.995194643736</v>
       </c>
       <c r="B26" t="n">
-        <v>107.8348388671875</v>
+        <v>113.1659753024578</v>
       </c>
       <c r="C26" t="n">
-        <v>66.49365234375</v>
+        <v>57.45764005184174</v>
       </c>
       <c r="D26" t="n">
-        <v>46.01458740234375</v>
+        <v>39.88794301450253</v>
       </c>
       <c r="E26" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.000376864328723105</v>
+        <v>0.01254802205054646</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>31.0850830078125</v>
+        <v>19.5124719440937</v>
       </c>
       <c r="B27" t="n">
-        <v>802.0914306640625</v>
+        <v>798.1833719313145</v>
       </c>
       <c r="C27" t="n">
-        <v>56.9559326171875</v>
+        <v>55.52171775698662</v>
       </c>
       <c r="D27" t="n">
-        <v>59.0626220703125</v>
+        <v>57.47779849171638</v>
       </c>
       <c r="E27" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>41.55856323242188</v>
+        <v>41.25965785235167</v>
       </c>
       <c r="B28" t="n">
-        <v>497.0917358398438</v>
+        <v>491.3767313808203</v>
       </c>
       <c r="C28" t="n">
-        <v>33.99345397949219</v>
+        <v>34.17724449560046</v>
       </c>
       <c r="D28" t="n">
-        <v>73.28990173339844</v>
+        <v>73.99787351116538</v>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1689,30 +1689,30 @@
         <v>58.75</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.03476497428840443</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>80.87039184570312</v>
+        <v>81.0400074198842</v>
       </c>
       <c r="B30" t="n">
-        <v>494.7706298828125</v>
+        <v>488.8222096264362</v>
       </c>
       <c r="C30" t="n">
-        <v>37.50497436523438</v>
+        <v>37.99768187850714</v>
       </c>
       <c r="D30" t="n">
-        <v>71.79937744140625</v>
+        <v>73.08515609800816</v>
       </c>
       <c r="E30" t="n">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1723,19 +1723,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1540.551300048828</v>
+        <v>1543.184949047863</v>
       </c>
       <c r="B31" t="n">
-        <v>43.5885009765625</v>
+        <v>43.83119836449623</v>
       </c>
       <c r="C31" t="n">
-        <v>64.04780578613281</v>
+        <v>60.49561714008451</v>
       </c>
       <c r="D31" t="n">
-        <v>37.64204406738281</v>
+        <v>37.13663135841489</v>
       </c>
       <c r="E31" t="n">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1758,13 +1758,13 @@
         <v>52.5</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.07713639051444651</v>
       </c>
     </row>
     <row r="33">
@@ -1781,33 +1781,33 @@
         <v>35.625</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0009005662882931471</v>
+        <v>0.09730461026121344</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>295.09375</v>
+        <v>305.6591796875</v>
       </c>
       <c r="B34" t="n">
-        <v>155.84375</v>
+        <v>155.9951171875</v>
       </c>
       <c r="C34" t="n">
-        <v>49.59375</v>
+        <v>39.1123046875</v>
       </c>
       <c r="D34" t="n">
-        <v>62.34375</v>
+        <v>50.0732421875</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1815,42 +1815,42 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1733.125</v>
+        <v>1738.002471923828</v>
       </c>
       <c r="B35" t="n">
-        <v>116.375</v>
+        <v>121.8934020996094</v>
       </c>
       <c r="C35" t="n">
-        <v>57</v>
+        <v>62.056396484375</v>
       </c>
       <c r="D35" t="n">
-        <v>38.375</v>
+        <v>40.07162475585938</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>15.5</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06906624880333867</v>
+        <v>0.02010249453541946</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.258224487304688</v>
+        <v>6.062074761837721</v>
       </c>
       <c r="B36" t="n">
-        <v>496.3134155273438</v>
+        <v>490.4717562049627</v>
       </c>
       <c r="C36" t="n">
-        <v>34.016845703125</v>
+        <v>31.95605880022049</v>
       </c>
       <c r="D36" t="n">
-        <v>76.99137878417969</v>
+        <v>76.45239047333598</v>
       </c>
       <c r="E36" t="n">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1873,13 +1873,13 @@
         <v>59.5</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.1280100994161275</v>
       </c>
     </row>
     <row r="38">
@@ -1896,7 +1896,7 @@
         <v>39.875</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1919,30 +1919,30 @@
         <v>33.5</v>
       </c>
       <c r="E39" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09479396303205019</v>
+        <v>0.07980009672738997</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1611.886047363281</v>
+        <v>1612.641329601407</v>
       </c>
       <c r="B40" t="n">
-        <v>55.14898681640625</v>
+        <v>55.88333715498447</v>
       </c>
       <c r="C40" t="n">
-        <v>59.67034912109375</v>
+        <v>59.13712655007839</v>
       </c>
       <c r="D40" t="n">
-        <v>37.37261962890625</v>
+        <v>37.06381167471409</v>
       </c>
       <c r="E40" t="n">
-        <v>16</v>
+        <v>27.5</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>38.375</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.1470470487894031</v>
       </c>
     </row>
     <row r="42">
@@ -1988,7 +1988,7 @@
         <v>53.625</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1524.3447265625</v>
+        <v>1535.755455255508</v>
       </c>
       <c r="B43" t="n">
-        <v>94.683837890625</v>
+        <v>96.72746187448502</v>
       </c>
       <c r="C43" t="n">
-        <v>75.7384033203125</v>
+        <v>69.52508261799812</v>
       </c>
       <c r="D43" t="n">
-        <v>43.63525390625</v>
+        <v>39.33902227878571</v>
       </c>
       <c r="E43" t="n">
-        <v>14</v>
+        <v>25.5</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>69.15625</v>
       </c>
       <c r="E44" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2045,22 +2045,22 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>260.9814453125</v>
+        <v>264.958975315094</v>
       </c>
       <c r="B45" t="n">
-        <v>172.53662109375</v>
+        <v>166.7439143657684</v>
       </c>
       <c r="C45" t="n">
-        <v>39.44287109375</v>
+        <v>38.93918108940125</v>
       </c>
       <c r="D45" t="n">
-        <v>50.06884765625</v>
+        <v>52.82132267951965</v>
       </c>
       <c r="E45" t="n">
-        <v>11</v>
+        <v>21.5</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2068,19 +2068,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1210.248291015625</v>
+        <v>1196.052062571049</v>
       </c>
       <c r="B46" t="n">
-        <v>17.52197265625</v>
+        <v>14.88586962223053</v>
       </c>
       <c r="C46" t="n">
-        <v>73.0732421875</v>
+        <v>82.71339678764343</v>
       </c>
       <c r="D46" t="n">
-        <v>39.715576171875</v>
+        <v>42.08660048246384</v>
       </c>
       <c r="E46" t="n">
-        <v>13</v>
+        <v>24.5</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2103,13 +2103,13 @@
         <v>56.25</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.1517056450031597</v>
       </c>
     </row>
     <row r="48">
@@ -2132,30 +2132,30 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04749841671944269</v>
+        <v>0.04617330803289058</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>193.84375</v>
+        <v>197.79443359375</v>
       </c>
       <c r="B49" t="n">
-        <v>183.796875</v>
+        <v>173.965576171875</v>
       </c>
       <c r="C49" t="n">
-        <v>40.671875</v>
+        <v>35.635498046875</v>
       </c>
       <c r="D49" t="n">
-        <v>50.765625</v>
+        <v>55.449462890625</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.003420859673251822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2172,7 +2172,7 @@
         <v>54.25</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2183,19 +2183,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1610.98779296875</v>
+        <v>1611.346188426018</v>
       </c>
       <c r="B51" t="n">
-        <v>106.21337890625</v>
+        <v>102.3084017038345</v>
       </c>
       <c r="C51" t="n">
-        <v>58.68017578125</v>
+        <v>66.37736332416534</v>
       </c>
       <c r="D51" t="n">
-        <v>40.4658203125</v>
+        <v>40.76598286628723</v>
       </c>
       <c r="E51" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2206,19 +2206,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>392.9716796875</v>
+        <v>390.2861258983612</v>
       </c>
       <c r="B52" t="n">
-        <v>714.872802734375</v>
+        <v>712.1401056647301</v>
       </c>
       <c r="C52" t="n">
-        <v>73.0234375</v>
+        <v>70.2358455657959</v>
       </c>
       <c r="D52" t="n">
-        <v>127.95654296875</v>
+        <v>139.6523331403732</v>
       </c>
       <c r="E52" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2229,19 +2229,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1292.05712890625</v>
+        <v>1298.061293244362</v>
       </c>
       <c r="B53" t="n">
-        <v>24.48828125</v>
+        <v>22.72863483428955</v>
       </c>
       <c r="C53" t="n">
-        <v>77.28515625</v>
+        <v>70.0713586807251</v>
       </c>
       <c r="D53" t="n">
-        <v>37.9013671875</v>
+        <v>38.40183138847351</v>
       </c>
       <c r="E53" t="n">
-        <v>12</v>
+        <v>23.5</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2252,19 +2252,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1109.445098876953</v>
+        <v>1106.095567651093</v>
       </c>
       <c r="B54" t="n">
-        <v>16.71917724609375</v>
+        <v>11.91521464288235</v>
       </c>
       <c r="C54" t="n">
-        <v>80.3878173828125</v>
+        <v>82.88925483822823</v>
       </c>
       <c r="D54" t="n">
-        <v>40.83932495117188</v>
+        <v>42.11226546019316</v>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>27.5</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2287,30 +2287,30 @@
         <v>83</v>
       </c>
       <c r="E55" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.007739938080495356</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1007.228881835938</v>
+        <v>1007.341364473104</v>
       </c>
       <c r="B56" t="n">
-        <v>18.27911376953125</v>
+        <v>14.76959939301014</v>
       </c>
       <c r="C56" t="n">
-        <v>80.89666748046875</v>
+        <v>80.7531486004591</v>
       </c>
       <c r="D56" t="n">
-        <v>39.68853759765625</v>
+        <v>40.31559778749943</v>
       </c>
       <c r="E56" t="n">
-        <v>15</v>
+        <v>26.5</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>83.45361328125</v>
       </c>
       <c r="E57" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2344,19 +2344,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>702.1278076171875</v>
+        <v>713.7727362811565</v>
       </c>
       <c r="B58" t="n">
-        <v>36.05511474609375</v>
+        <v>33.97169314324856</v>
       </c>
       <c r="C58" t="n">
-        <v>81.02203369140625</v>
+        <v>75.52026905119419</v>
       </c>
       <c r="D58" t="n">
-        <v>40.49224853515625</v>
+        <v>42.12316705286503</v>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
+        <v>26.5</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2367,42 +2367,42 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>126.75</v>
+        <v>119.302734375</v>
       </c>
       <c r="B59" t="n">
-        <v>201.921875</v>
+        <v>196.4056396484375</v>
       </c>
       <c r="C59" t="n">
-        <v>35.1875</v>
+        <v>39.64208984375</v>
       </c>
       <c r="D59" t="n">
-        <v>48.703125</v>
+        <v>48.1851806640625</v>
       </c>
       <c r="E59" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05559999232112252</v>
+        <v>0.01087206238362924</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>444.5498046875</v>
+        <v>441.664929151535</v>
       </c>
       <c r="B60" t="n">
-        <v>435.81494140625</v>
+        <v>435.1908727884293</v>
       </c>
       <c r="C60" t="n">
-        <v>60.931884765625</v>
+        <v>61.83347946405411</v>
       </c>
       <c r="D60" t="n">
-        <v>78.080078125</v>
+        <v>75.74367189407349</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>24.5</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2413,19 +2413,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1886.963623046875</v>
+        <v>1886.471670806407</v>
       </c>
       <c r="B61" t="n">
-        <v>717.693359375</v>
+        <v>716.3671126365662</v>
       </c>
       <c r="C61" t="n">
-        <v>31.278564453125</v>
+        <v>31.52838832139969</v>
       </c>
       <c r="D61" t="n">
-        <v>58.635498046875</v>
+        <v>60.76455944776535</v>
       </c>
       <c r="E61" t="n">
-        <v>13</v>
+        <v>24.5</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2436,25 +2436,140 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>158.625</v>
+        <v>158.1151428222656</v>
       </c>
       <c r="B62" t="n">
-        <v>193.625</v>
+        <v>190.8666076660156</v>
       </c>
       <c r="C62" t="n">
-        <v>37.953125</v>
+        <v>36.3461799621582</v>
       </c>
       <c r="D62" t="n">
-        <v>48.390625</v>
+        <v>46.22323989868164</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>18.5</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05721121566415072</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>481.07421875</v>
+      </c>
+      <c r="B63" t="n">
+        <v>55.0458984375</v>
+      </c>
+      <c r="C63" t="n">
+        <v>69.92822265625</v>
+      </c>
+      <c r="D63" t="n">
+        <v>36.8681640625</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>470.705078125</v>
+      </c>
+      <c r="B64" t="n">
+        <v>124.86376953125</v>
+      </c>
+      <c r="C64" t="n">
+        <v>53.154296875</v>
+      </c>
+      <c r="D64" t="n">
+        <v>56.17919921875</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1831.400390625</v>
+      </c>
+      <c r="B65" t="n">
+        <v>95.94140625</v>
+      </c>
+      <c r="C65" t="n">
+        <v>40.650390625</v>
+      </c>
+      <c r="D65" t="n">
+        <v>31.25390625</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1281.10009765625</v>
+      </c>
+      <c r="B66" t="n">
+        <v>66.82373046875</v>
+      </c>
+      <c r="C66" t="n">
+        <v>81.888671875</v>
+      </c>
+      <c r="D66" t="n">
+        <v>42.5927734375</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>347.02587890625</v>
+      </c>
+      <c r="B67" t="n">
+        <v>147.0244140625</v>
+      </c>
+      <c r="C67" t="n">
+        <v>36.9560546875</v>
+      </c>
+      <c r="D67" t="n">
+        <v>51.95361328125</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2469,17 +2584,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10" defaultRowHeight="15.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2494,376 +2612,376 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10" defaultRowHeight="15.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>696</v>
+        <v>559.296875</v>
       </c>
       <c r="B2" t="n">
-        <v>401</v>
+        <v>362.9375</v>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>120.703125</v>
       </c>
       <c r="D2" t="n">
-        <v>106</v>
+        <v>115.296875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01437309639738068</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>617</v>
+        <v>333.9375</v>
       </c>
       <c r="B3" t="n">
-        <v>384</v>
+        <v>322.015625</v>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>76.5625</v>
       </c>
       <c r="D3" t="n">
-        <v>118</v>
+        <v>84.234375</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09528139840355664</v>
+        <v>0.1238499108404952</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>544</v>
+        <v>389.4375</v>
       </c>
       <c r="B4" t="n">
-        <v>382</v>
+        <v>321.75</v>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>75.046875</v>
       </c>
       <c r="D4" t="n">
-        <v>109</v>
+        <v>80.703125</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1284185493460167</v>
+        <v>0.01494043084617791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>643</v>
+        <v>396.359375</v>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>586.46875</v>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>158.859375</v>
       </c>
       <c r="D5" t="n">
-        <v>37</v>
+        <v>156.921875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.07135558312351795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>337</v>
+        <v>309.15625</v>
       </c>
       <c r="B6" t="n">
-        <v>519</v>
+        <v>457.390625</v>
       </c>
       <c r="C6" t="n">
-        <v>154</v>
+        <v>107.59375</v>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>86.53125</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.136986301369863</v>
+        <v>0.01565258309239111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>660</v>
+        <v>181.75</v>
       </c>
       <c r="B7" t="n">
-        <v>615</v>
+        <v>371.265625</v>
       </c>
       <c r="C7" t="n">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="D7" t="n">
-        <v>75</v>
+        <v>70.59375</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.0460736481574863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>322</v>
+        <v>288.171875</v>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>328.015625</v>
       </c>
       <c r="C8" t="n">
-        <v>47</v>
+        <v>61.5625</v>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>76.96875</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1378382143082622</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>686</v>
+        <v>186.15625</v>
       </c>
       <c r="B9" t="n">
-        <v>55</v>
+        <v>286.765625</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>107.65625</v>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>81.109375</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.01685440155611707</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>428</v>
+        <v>509.5</v>
       </c>
       <c r="B10" t="n">
-        <v>404</v>
+        <v>341.578125</v>
       </c>
       <c r="C10" t="n">
-        <v>86</v>
+        <v>110.078125</v>
       </c>
       <c r="D10" t="n">
-        <v>103</v>
+        <v>114.921875</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1977255277273373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>376</v>
+        <v>124.046875</v>
       </c>
       <c r="B11" t="n">
-        <v>71</v>
+        <v>384.75</v>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>64.6875</v>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>81.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.141712387445153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>322</v>
+        <v>266.875</v>
       </c>
       <c r="B12" t="n">
-        <v>469</v>
+        <v>195.484375</v>
       </c>
       <c r="C12" t="n">
-        <v>95</v>
+        <v>68.59375</v>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>65.453125</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03053213143355627</v>
+        <v>0.05412437901303361</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>188</v>
+        <v>405.71875</v>
       </c>
       <c r="B13" t="n">
-        <v>291</v>
+        <v>514.375</v>
       </c>
       <c r="C13" t="n">
-        <v>104</v>
+        <v>108.078125</v>
       </c>
       <c r="D13" t="n">
-        <v>83</v>
+        <v>93.71875</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1378745983727937</v>
+        <v>0.08903382530641464</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>379</v>
+        <v>425.8125</v>
       </c>
       <c r="B14" t="n">
-        <v>316</v>
+        <v>331.109375</v>
       </c>
       <c r="C14" t="n">
-        <v>73</v>
+        <v>77.765625</v>
       </c>
       <c r="D14" t="n">
-        <v>94</v>
+        <v>87.1875</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1273231622746186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>289</v>
+        <v>200.890625</v>
       </c>
       <c r="B15" t="n">
-        <v>334</v>
+        <v>472.71875</v>
       </c>
       <c r="C15" t="n">
-        <v>60</v>
+        <v>106.21875</v>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>64.265625</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02258377853326858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>459</v>
+        <v>149.765625</v>
       </c>
       <c r="B16" t="n">
-        <v>325</v>
+        <v>206.0625</v>
       </c>
       <c r="C16" t="n">
-        <v>121</v>
+        <v>70.453125</v>
       </c>
       <c r="D16" t="n">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.04543673497464742</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B17" t="n">
-        <v>211</v>
+        <v>344</v>
       </c>
       <c r="C17" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D17" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -2872,76 +2990,53 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1568322156721496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>199</v>
+        <v>214.125</v>
       </c>
       <c r="B18" t="n">
-        <v>470</v>
+        <v>202.625</v>
       </c>
       <c r="C18" t="n">
-        <v>113</v>
+        <v>59.75</v>
       </c>
       <c r="D18" t="n">
-        <v>73</v>
+        <v>57.625</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.09342962358622969</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>391</v>
+        <v>429.5</v>
       </c>
       <c r="C19" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D19" t="n">
-        <v>79</v>
+        <v>58.5</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>239</v>
-      </c>
-      <c r="B20" t="n">
-        <v>347</v>
-      </c>
-      <c r="C20" t="n">
-        <v>53</v>
-      </c>
-      <c r="D20" t="n">
-        <v>74</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>0.09819457072347058</v>
       </c>
     </row>
   </sheetData>

--- a/dataBase.xlsx
+++ b/dataBase.xlsx
@@ -1051,7 +1051,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -2594,7 +2594,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D1" t="n">
         <v>0</v>
